--- a/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC6B4A-309D-4B0B-A7AF-D6D04101D463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81011158-3B54-438F-8BB7-A683ABDD2BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="0" windowWidth="18420" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="202">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -411,18 +411,6 @@
     <t>Number of days exceeds -365 or Number of days exceeds -366 in a leap year</t>
   </si>
   <si>
-    <t>Small Benefit value can not exceed 1000 (value  may change in future)</t>
-  </si>
-  <si>
-    <t>Value of Benefit can not exceed €1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Benefit can not be entered more than twice for PPSN in one tax year </t>
-  </si>
-  <si>
-    <t>Exemption can not exceed 2 per employee per tax year</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -630,12 +618,51 @@
   <si>
     <t>Removed 173</t>
   </si>
+  <si>
+    <t>Small Benefit value can not exceed 1500 (value  may change in future)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Benefit can not be entered more than five times for PPSN in one tax year </t>
+  </si>
+  <si>
+    <t>Changed max amount from 1000 to 1500</t>
+  </si>
+  <si>
+    <t>Changed max small benefits amount from 2 to 5</t>
+  </si>
+  <si>
+    <t>Value of benefit exceeds allowable amount</t>
+  </si>
+  <si>
+    <t>Exemption exceeds maximum number  allowable per year</t>
+  </si>
+  <si>
+    <t>Appendix A</t>
+  </si>
+  <si>
+    <t>Small Benefit value can not exceed 1000 (value  may change in future)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Benefit can not be entered more than twice for PPSN in one tax year </t>
+  </si>
+  <si>
+    <t>See Appendix A below for allowable amounts for specific years</t>
+  </si>
+  <si>
+    <t>See Appendix A below for allowable number of submissions for specific years</t>
+  </si>
+  <si>
+    <t>Small Benefit Exemption rules applicable up to 31/12/2024</t>
+  </si>
+  <si>
+    <t>Small Benefit Exmption rules applicable from 01/01/2025 Onwards</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,8 +789,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,12 +1022,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,6 +1281,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,6 +1307,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1280,12 +1347,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -21660,9 +21734,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -21700,9 +21774,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21735,26 +21809,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21787,26 +21844,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21983,7 +22023,7 @@
   <dimension ref="B8:E68"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21998,18 +22038,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -22050,7 +22090,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="89">
+      <c r="B14" s="91">
         <v>0.12</v>
       </c>
       <c r="C14" s="71">
@@ -22059,59 +22099,59 @@
       <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="94">
         <v>45218</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="93"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="93"/>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="94"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="59">
         <v>0.13</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E19" s="70">
         <v>45272</v>
@@ -22122,12 +22162,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="104">
+        <v>187</v>
+      </c>
+      <c r="E20" s="88">
         <v>45371</v>
       </c>
     </row>
@@ -22139,23 +22179,37 @@
         <v>173</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E21" s="70">
         <v>45373</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="C22" s="34">
+        <v>38</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="70">
+        <v>45582</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="63"/>
+      <c r="C23" s="34">
+        <v>39</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="70">
+        <v>45582</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
@@ -22444,10 +22498,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM342"/>
+  <dimension ref="A1:BM345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -22516,43 +22570,43 @@
       <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="106"/>
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="99"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23314,23 +23368,23 @@
       <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -24189,8 +24243,8 @@
       <c r="B38" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>128</v>
+      <c r="C38" s="89" t="s">
+        <v>198</v>
       </c>
       <c r="D38" s="4">
         <v>17</v>
@@ -24216,11 +24270,11 @@
       <c r="K38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="110">
         <v>2603</v>
       </c>
-      <c r="M38" s="43" t="s">
-        <v>129</v>
+      <c r="M38" s="111" t="s">
+        <v>193</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>77</v>
@@ -24236,8 +24290,8 @@
       <c r="B39" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>130</v>
+      <c r="C39" s="89" t="s">
+        <v>199</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>36</v>
@@ -24263,17 +24317,17 @@
       <c r="K39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="110">
         <v>2604</v>
       </c>
-      <c r="M39" s="50" t="s">
-        <v>131</v>
+      <c r="M39" s="112" t="s">
+        <v>194</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -24284,7 +24338,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>36</v>
@@ -24331,7 +24385,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>36</v>
@@ -24361,7 +24415,7 @@
         <v>2606</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>77</v>
@@ -24378,7 +24432,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>36</v>
@@ -24417,7 +24471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>170</v>
       </c>
@@ -24425,7 +24479,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D43" s="4">
         <v>19</v>
@@ -24455,7 +24509,7 @@
         <v>2609</v>
       </c>
       <c r="M43" s="50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>77</v>
@@ -24472,7 +24526,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>36</v>
@@ -24502,7 +24556,7 @@
         <v>2610</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>77</v>
@@ -24519,7 +24573,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D45" s="75" t="s">
         <v>36</v>
@@ -24549,7 +24603,7 @@
         <v>2611</v>
       </c>
       <c r="M45" s="80" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N45" s="81" t="s">
         <v>77</v>
@@ -24566,7 +24620,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D46" s="82" t="s">
         <v>36</v>
@@ -24596,53 +24650,53 @@
         <v>2614</v>
       </c>
       <c r="M46" s="87" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N46" s="83" t="s">
         <v>77</v>
       </c>
       <c r="O46" s="83" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="103"/>
+      <c r="A47" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="109"/>
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="99"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="105"/>
       <c r="P48" s="13"/>
     </row>
     <row r="49" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -24650,10 +24704,10 @@
         <v>148</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>36</v>
@@ -24683,10 +24737,10 @@
         <v>1111</v>
       </c>
       <c r="M49" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O49" s="22" t="s">
         <v>58</v>
@@ -24698,7 +24752,7 @@
         <v>146</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C50" s="45" t="s">
         <v>35</v>
@@ -24746,7 +24800,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>43</v>
@@ -24794,7 +24848,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>45</v>
@@ -24842,7 +24896,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>46</v>
@@ -24875,10 +24929,10 @@
         <v>1003</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N53" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O53" s="22" t="s">
         <v>49</v>
@@ -24889,10 +24943,10 @@
         <v>56</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>36</v>
@@ -24922,10 +24976,10 @@
         <v>1004</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N54" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O54" s="22" t="s">
         <v>49</v>
@@ -24936,7 +24990,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>53</v>
@@ -25032,7 +25086,7 @@
         <v>117</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>55</v>
@@ -25079,7 +25133,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>56</v>
@@ -25115,7 +25169,7 @@
         <v>57</v>
       </c>
       <c r="N57" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O57" s="22" t="s">
         <v>58</v>
@@ -25126,7 +25180,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>59</v>
@@ -25162,7 +25216,7 @@
         <v>60</v>
       </c>
       <c r="N58" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O58" s="22" t="s">
         <v>58</v>
@@ -25173,10 +25227,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>36</v>
@@ -25209,7 +25263,7 @@
         <v>62</v>
       </c>
       <c r="N59" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O59" s="22" t="s">
         <v>58</v>
@@ -25220,7 +25274,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>63</v>
@@ -25256,7 +25310,7 @@
         <v>64</v>
       </c>
       <c r="N60" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O60" s="22" t="s">
         <v>36</v>
@@ -25267,10 +25321,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>36</v>
@@ -25300,7 +25354,7 @@
         <v>2501</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>67</v>
@@ -25310,43 +25364,43 @@
       </c>
     </row>
     <row r="62" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="100"/>
+      <c r="A62" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="106"/>
       <c r="P62" s="13"/>
     </row>
     <row r="63" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
-      <c r="O63" s="99"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="105"/>
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -25354,10 +25408,10 @@
         <v>148</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D64" s="44" t="s">
         <v>36</v>
@@ -25387,10 +25441,10 @@
         <v>1111</v>
       </c>
       <c r="M64" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N64" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O64" s="22" t="s">
         <v>58</v>
@@ -25402,7 +25456,7 @@
         <v>146</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C65" s="45" t="s">
         <v>35</v>
@@ -25450,7 +25504,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>43</v>
@@ -25498,7 +25552,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>45</v>
@@ -25546,7 +25600,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>46</v>
@@ -25582,7 +25636,7 @@
         <v>48</v>
       </c>
       <c r="N68" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>49</v>
@@ -25593,10 +25647,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>36</v>
@@ -25629,7 +25683,7 @@
         <v>52</v>
       </c>
       <c r="N69" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O69" s="22" t="s">
         <v>49</v>
@@ -25640,7 +25694,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>53</v>
@@ -25736,7 +25790,7 @@
         <v>118</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>55</v>
@@ -25783,7 +25837,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>56</v>
@@ -25819,7 +25873,7 @@
         <v>57</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O72" s="22" t="s">
         <v>58</v>
@@ -25830,7 +25884,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>59</v>
@@ -25866,7 +25920,7 @@
         <v>60</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O73" s="22" t="s">
         <v>58</v>
@@ -25877,7 +25931,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>61</v>
@@ -25910,10 +25964,10 @@
         <v>1008</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O74" s="22" t="s">
         <v>58</v>
@@ -25924,7 +25978,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>63</v>
@@ -25960,7 +26014,7 @@
         <v>64</v>
       </c>
       <c r="N75" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O75" s="22" t="s">
         <v>36</v>
@@ -25971,10 +26025,10 @@
         <v>71</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>36</v>
@@ -26004,33 +26058,33 @@
         <v>2506</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N76" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
+      <c r="A77" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="102"/>
+      <c r="K77" s="102"/>
+      <c r="L77" s="102"/>
+      <c r="M77" s="102"/>
+      <c r="N77" s="102"/>
+      <c r="O77" s="102"/>
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
@@ -26083,23 +26137,23 @@
       <c r="BM77" s="13"/>
     </row>
     <row r="78" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="97" t="s">
+      <c r="A78" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="98"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="98"/>
-      <c r="H78" s="98"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="98"/>
-      <c r="K78" s="98"/>
-      <c r="L78" s="98"/>
-      <c r="M78" s="98"/>
-      <c r="N78" s="98"/>
-      <c r="O78" s="98"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="104"/>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
@@ -26156,7 +26210,7 @@
         <v>146</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C79" s="45" t="s">
         <v>35</v>
@@ -26253,7 +26307,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>43</v>
@@ -26350,7 +26404,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>45</v>
@@ -26447,7 +26501,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>46</v>
@@ -26480,10 +26534,10 @@
         <v>1003</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N82" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O82" s="22" t="s">
         <v>49</v>
@@ -26543,7 +26597,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>50</v>
@@ -26576,10 +26630,10 @@
         <v>1004</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N83" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O83" s="22" t="s">
         <v>49</v>
@@ -26639,7 +26693,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>53</v>
@@ -26675,7 +26729,7 @@
         <v>54</v>
       </c>
       <c r="N84" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O84" s="22" t="s">
         <v>49</v>
@@ -26735,7 +26789,7 @@
         <v>119</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>55</v>
@@ -26831,7 +26885,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>56</v>
@@ -26867,7 +26921,7 @@
         <v>57</v>
       </c>
       <c r="N86" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O86" s="22" t="s">
         <v>58</v>
@@ -26927,7 +26981,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>59</v>
@@ -26963,7 +27017,7 @@
         <v>60</v>
       </c>
       <c r="N87" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O87" s="22" t="s">
         <v>58</v>
@@ -27023,7 +27077,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>61</v>
@@ -27056,10 +27110,10 @@
         <v>1008</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N88" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O88" s="22" t="s">
         <v>58</v>
@@ -27119,10 +27173,10 @@
         <v>81</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>36</v>
@@ -27155,7 +27209,7 @@
         <v>64</v>
       </c>
       <c r="N89" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O89" s="22" t="s">
         <v>36</v>
@@ -27215,10 +27269,10 @@
         <v>169</v>
       </c>
       <c r="B90" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>165</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>36</v>
@@ -27248,13 +27302,13 @@
         <v>3101</v>
       </c>
       <c r="M90" s="40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N90" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O90" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P90" s="13"/>
       <c r="Q90" s="13"/>
@@ -27312,10 +27366,10 @@
         <v>156</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D91" s="35" t="s">
         <v>36</v>
@@ -27345,13 +27399,13 @@
         <v>3014</v>
       </c>
       <c r="M91" s="47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N91" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O91" s="58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P91" s="13"/>
       <c r="Q91" s="13"/>
@@ -27409,7 +27463,7 @@
         <v>168</v>
       </c>
       <c r="B92" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>98</v>
@@ -27445,7 +27499,7 @@
         <v>99</v>
       </c>
       <c r="N92" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O92" s="22" t="s">
         <v>100</v>
@@ -27456,10 +27510,10 @@
         <v>175</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D93" s="35" t="s">
         <v>36</v>
@@ -27489,33 +27543,33 @@
         <v>3015</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N93" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O93" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="96"/>
-      <c r="O94" s="96"/>
+      <c r="A94" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="102"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
+      <c r="M94" s="102"/>
+      <c r="N94" s="102"/>
+      <c r="O94" s="102"/>
       <c r="P94" s="13"/>
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
@@ -27568,30 +27622,30 @@
       <c r="BM94" s="13"/>
     </row>
     <row r="95" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97" t="s">
+      <c r="A95" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="98"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="98"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="98"/>
-      <c r="H95" s="98"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="98"/>
-      <c r="K95" s="98"/>
-      <c r="L95" s="98"/>
-      <c r="M95" s="98"/>
-      <c r="N95" s="98"/>
-      <c r="O95" s="98"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="104"/>
+      <c r="E95" s="104"/>
+      <c r="F95" s="104"/>
+      <c r="G95" s="104"/>
+      <c r="H95" s="104"/>
+      <c r="I95" s="104"/>
+      <c r="J95" s="104"/>
+      <c r="K95" s="104"/>
+      <c r="L95" s="104"/>
+      <c r="M95" s="104"/>
+      <c r="N95" s="104"/>
+      <c r="O95" s="104"/>
     </row>
     <row r="96" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A96" s="44">
         <v>146</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C96" s="45" t="s">
         <v>35</v>
@@ -27638,7 +27692,7 @@
         <v>102</v>
       </c>
       <c r="B97" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>43</v>
@@ -27685,7 +27739,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>45</v>
@@ -27732,7 +27786,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>46</v>
@@ -27765,7 +27819,7 @@
         <v>1003</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>42</v>
@@ -27779,7 +27833,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>50</v>
@@ -27812,7 +27866,7 @@
         <v>1004</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>42</v>
@@ -27826,7 +27880,7 @@
         <v>121</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>55</v>
@@ -27873,7 +27927,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>56</v>
@@ -27920,7 +27974,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>59</v>
@@ -27967,7 +28021,7 @@
         <v>109</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>61</v>
@@ -28000,7 +28054,7 @@
         <v>1008</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>42</v>
@@ -28014,10 +28068,10 @@
         <v>110</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D105" s="4">
         <v>302</v>
@@ -28047,7 +28101,7 @@
         <v>5001</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>42</v>
@@ -28056,15 +28110,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>111</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D106" s="4">
         <v>302</v>
@@ -28103,12 +28157,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>17</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>72</v>
@@ -28144,21 +28198,21 @@
         <v>73</v>
       </c>
       <c r="N107" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O107" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>112</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D108" s="16">
         <v>305</v>
@@ -28188,24 +28242,24 @@
         <v>3002</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N108" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O108" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>113</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>36</v>
@@ -28235,133 +28289,259 @@
         <v>3003</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N109" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O109" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="13"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="13"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" s="100"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="100"/>
+      <c r="E110" s="100"/>
+      <c r="F110" s="100"/>
+      <c r="G110" s="100"/>
+      <c r="H110" s="100"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="100"/>
+      <c r="K110" s="100"/>
+      <c r="L110" s="100"/>
+      <c r="M110" s="100"/>
+      <c r="N110" s="100"/>
+      <c r="O110" s="100"/>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="98"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="98"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="98"/>
+      <c r="H111" s="98"/>
+      <c r="I111" s="98"/>
+      <c r="J111" s="98"/>
+      <c r="K111" s="98"/>
+      <c r="L111" s="98"/>
+      <c r="M111" s="98"/>
+      <c r="N111" s="98"/>
+      <c r="O111" s="99"/>
+    </row>
+    <row r="112" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>163</v>
+      </c>
+      <c r="B112" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112" s="4">
+        <v>17</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112" s="16">
+        <v>200</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L112" s="5">
+        <v>2603</v>
+      </c>
+      <c r="M112" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="N112" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O112" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>164</v>
+      </c>
+      <c r="B113" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" s="16">
+        <v>200</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L113" s="5">
+        <v>2604</v>
+      </c>
+      <c r="M113" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="N113" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O113" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="98"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="98"/>
+      <c r="H114" s="98"/>
+      <c r="I114" s="98"/>
+      <c r="J114" s="98"/>
+      <c r="K114" s="98"/>
+      <c r="L114" s="98"/>
+      <c r="M114" s="98"/>
+      <c r="N114" s="98"/>
+      <c r="O114" s="99"/>
+    </row>
+    <row r="115" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>163</v>
+      </c>
+      <c r="B115" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115" s="4">
+        <v>17</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="16">
+        <v>200</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L115" s="5">
+        <v>2603</v>
+      </c>
+      <c r="M115" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="N115" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O115" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>164</v>
+      </c>
+      <c r="B116" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="16">
+        <v>200</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L116" s="5">
+        <v>2604</v>
+      </c>
+      <c r="M116" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="N116" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O116" s="22" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
@@ -32191,6 +32371,7 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="13"/>
+      <c r="C342" s="52"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
@@ -32204,38 +32385,156 @@
       <c r="N342" s="13"/>
       <c r="O342" s="13"/>
     </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A343" s="12"/>
+      <c r="B343" s="13"/>
+      <c r="C343" s="52"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="27"/>
+      <c r="H343" s="27"/>
+      <c r="I343" s="27"/>
+      <c r="J343" s="12"/>
+      <c r="K343" s="12"/>
+      <c r="L343" s="12"/>
+      <c r="M343" s="13"/>
+      <c r="N343" s="13"/>
+      <c r="O343" s="13"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A344" s="12"/>
+      <c r="B344" s="13"/>
+      <c r="C344" s="52"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
+      <c r="F344" s="12"/>
+      <c r="G344" s="27"/>
+      <c r="H344" s="27"/>
+      <c r="I344" s="27"/>
+      <c r="J344" s="12"/>
+      <c r="K344" s="12"/>
+      <c r="L344" s="12"/>
+      <c r="M344" s="13"/>
+      <c r="N344" s="13"/>
+      <c r="O344" s="13"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A345" s="12"/>
+      <c r="B345" s="13"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
+      <c r="F345" s="12"/>
+      <c r="G345" s="27"/>
+      <c r="H345" s="27"/>
+      <c r="I345" s="27"/>
+      <c r="J345" s="12"/>
+      <c r="K345" s="12"/>
+      <c r="L345" s="12"/>
+      <c r="M345" s="13"/>
+      <c r="N345" s="13"/>
+      <c r="O345" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="A78:O78"/>
     <mergeCell ref="A62:O62"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A19:O19"/>
     <mergeCell ref="A47:O47"/>
     <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A111:O111"/>
     <mergeCell ref="A94:O94"/>
     <mergeCell ref="A95:O95"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A78:O78"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L57:L61 L11:L15 L72:L76 L23:L24 L31:L32 L17:L18 L7:L9 L68:L70 L53:L55 L26:L29 L86:L89 L103:L108 L82:L84 L99:L101 L92" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57:K61 K72:K76 K68:K70 K7:K9 K53:K55 K11:K18 K23:K45 K82:K84 K103:K109 K99:K101 K86:K93" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57:K61 K72:K76 K68:K70 K7:K9 K53:K55 K11:K18 K23:K45 K82:K84 K103:K109 K99:K101 K86:K93 K115:K116 K112:K113" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J57:J61 J72:J76 J68:J70 J7:J9 J53:J55 J11:J18 J23:J45 J82:J84 J103:J109 J99:J101 J86:J93" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J57:J61 J72:J76 J68:J70 J7:J9 J53:J55 J11:J18 J23:J45 J82:J84 J103:J109 J99:J101 J86:J93 J115:J116 J112:J113" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C38" location="ERR_Validation!A110" display="See Appendix A below for allowable amounts for specific years" xr:uid="{3145707C-310F-4C9A-8CC0-DFECAB116321}"/>
+    <hyperlink ref="C39" location="ERR_Validation!A110" display="See Appendix A below for allowable number of submissions for specific years" xr:uid="{A42FA457-322D-4341-9479-FD182D7DF9D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l29cd52af9b640b690e3347aa75f97a9>
+    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ade64af1c6a24cfdbe8da7f962b31d74>
+    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
+        </TermInfo>
+      </Terms>
+    </e62af2f156934d1aab35222180c5fbb1>
+    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
+        </TermInfo>
+      </Terms>
+    </nb82aa7489a64919aab5fd247ffa0d1e>
+    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
+        </TermInfo>
+      </Terms>
+    </f62107d924a7469492625f91956e46a6>
+    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e9be08524f454d8b979862330e952271>
+    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Value>97</Value>
+      <Value>45</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <UserInfo>
+        <DisplayName>Hunt, Martin</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Word document" ma:contentTypeID="0x010100852E11B2A94E4937B655CB4FCD918453006DFD5C59A7CB45AAB5046F3899BB7DEC00F397826DF95DEB4B8DB89BEACF2240F1" ma:contentTypeVersion="79" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2efa76ee5d5cd602cc18ca32df57176e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9394a98c30c487d0596bd1768260a67a" ns2:_="">
     <xsd:import namespace="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
@@ -32455,68 +32754,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l29cd52af9b640b690e3347aa75f97a9>
-    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ade64af1c6a24cfdbe8da7f962b31d74>
-    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
-        </TermInfo>
-      </Terms>
-    </e62af2f156934d1aab35222180c5fbb1>
-    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
-        </TermInfo>
-      </Terms>
-    </nb82aa7489a64919aab5fd247ffa0d1e>
-    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
-        </TermInfo>
-      </Terms>
-    </f62107d924a7469492625f91956e46a6>
-    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e9be08524f454d8b979862330e952271>
-    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Value>97</Value>
-      <Value>45</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <UserInfo>
-        <DisplayName>Hunt, Martin</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32532,22 +32788,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT3/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81011158-3B54-438F-8BB7-A683ABDD2BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7931D-866E-47F2-B084-BFE7A5D45828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="0" windowWidth="18420" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="204">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -657,12 +657,18 @@
   <si>
     <t>Small Benefit Exmption rules applicable from 01/01/2025 Onwards</t>
   </si>
+  <si>
+    <t>176, 177, 178, 179, 180</t>
+  </si>
+  <si>
+    <t>Unauthorised request: Invalid ROS Digital Certificate provided.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +806,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1028,7 +1040,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,6 +1299,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,18 +1328,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1347,14 +1356,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -21717,7 +21732,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="542925" y="247650"/>
-          <a:ext cx="1569085" cy="675640"/>
+          <a:ext cx="1570446" cy="675640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22022,9 +22037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:E68"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22038,18 +22051,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -22090,7 +22103,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="91">
+      <c r="B14" s="94">
         <v>0.12</v>
       </c>
       <c r="C14" s="71">
@@ -22099,49 +22112,49 @@
       <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="97">
         <v>45218</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="92"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="95"/>
+      <c r="E15" s="98"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="92"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="95"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="93"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="96"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="59">
@@ -22212,10 +22225,18 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="63"/>
+      <c r="B24" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="70">
+        <v>45635</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
@@ -22498,11 +22519,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM345"/>
+  <dimension ref="A1:BN350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22570,43 +22589,43 @@
       <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="106"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="105"/>
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23272,7 +23291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -23319,7 +23338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>144</v>
       </c>
@@ -23367,83 +23386,132 @@
       </c>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
+    <row r="19" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>176</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="5">
+        <v>401</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+    </row>
+    <row r="20" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>152</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4">
-        <v>200</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="56">
-        <v>1017</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>153</v>
       </c>
       <c r="B21" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
@@ -23470,10 +23538,10 @@
         <v>51</v>
       </c>
       <c r="L21" s="56">
-        <v>1018</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>85</v>
+        <v>1017</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>77</v>
@@ -23483,17 +23551,17 @@
       </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B22" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -23518,41 +23586,42 @@
         <v>51</v>
       </c>
       <c r="L22" s="56">
-        <v>2049</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>86</v>
+        <v>1018</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="B23" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="4">
         <v>200</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="16" t="s">
@@ -23562,38 +23631,38 @@
         <v>40</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="4">
-        <v>2007</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="L23" s="56">
+        <v>2049</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O23" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>91</v>
+      <c r="C24" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="16">
@@ -23603,44 +23672,44 @@
         <v>80</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="5">
-        <v>4002</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>93</v>
+        <v>41</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2007</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>143</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>97</v>
       </c>
       <c r="B25" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="16">
@@ -23650,40 +23719,39 @@
         <v>80</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="16">
-        <v>2050</v>
+        <v>47</v>
+      </c>
+      <c r="L25" s="5">
+        <v>4002</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O25" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="24"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>20</v>
+      <c r="O25" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>143</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="4">
-        <v>9</v>
+      <c r="C26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>37</v>
@@ -23704,33 +23772,34 @@
         <v>40</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="L26" s="16">
+        <v>2050</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O26" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>37</v>
@@ -23741,7 +23810,7 @@
       <c r="G27" s="16">
         <v>200</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="16" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="16" t="s">
@@ -23751,33 +23820,33 @@
         <v>40</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="5">
-        <v>2009</v>
+        <v>51</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1010</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D28" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>37</v>
@@ -23800,31 +23869,31 @@
       <c r="K28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="4">
-        <v>2010</v>
+      <c r="L28" s="5">
+        <v>2009</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="49" t="s">
-        <v>107</v>
+      <c r="C29" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D29" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>37</v>
@@ -23835,7 +23904,7 @@
       <c r="G29" s="16">
         <v>200</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -23845,30 +23914,30 @@
         <v>40</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L29" s="4">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
-        <v>134</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>31</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>110</v>
+      <c r="C30" s="49" t="s">
+        <v>107</v>
       </c>
       <c r="D30" s="4">
         <v>13</v>
@@ -23892,13 +23961,13 @@
         <v>40</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="18">
-        <v>2048</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2017</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>77</v>
@@ -23907,15 +23976,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>32</v>
+    <row r="31" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>134</v>
       </c>
       <c r="B31" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>111</v>
+      <c r="C31" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="D31" s="4">
         <v>13</v>
@@ -23939,13 +24008,13 @@
         <v>40</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="4">
-        <v>2018</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2048</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>77</v>
@@ -23954,18 +24023,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="16">
-        <v>16</v>
+      <c r="C32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="4">
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>37</v>
@@ -23982,37 +24051,37 @@
       <c r="I32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>41</v>
+      <c r="K32" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="L32" s="4">
-        <v>2019</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>114</v>
+        <v>2018</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O32" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>36</v>
+      <c r="C33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="16">
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>37</v>
@@ -24029,37 +24098,37 @@
       <c r="I33" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="5">
-        <v>2045</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>116</v>
+      <c r="L33" s="4">
+        <v>2019</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O33" s="22" t="s">
-        <v>100</v>
+      <c r="O33" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="4">
-        <v>17</v>
+      <c r="C34" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>37</v>
@@ -24080,33 +24149,33 @@
         <v>117</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L34" s="5">
-        <v>2600</v>
+        <v>2045</v>
       </c>
       <c r="M34" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>37</v>
@@ -24124,33 +24193,33 @@
         <v>81</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L35" s="5">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="M35" s="43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" s="4">
         <v>20</v>
@@ -24171,16 +24240,16 @@
         <v>81</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L36" s="5">
-        <v>2602</v>
-      </c>
-      <c r="M36" s="50" t="s">
-        <v>125</v>
+        <v>2601</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>77</v>
@@ -24191,13 +24260,13 @@
     </row>
     <row r="37" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B37" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" s="4">
         <v>20</v>
@@ -24224,10 +24293,10 @@
         <v>51</v>
       </c>
       <c r="L37" s="5">
-        <v>2608</v>
+        <v>2602</v>
       </c>
       <c r="M37" s="50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>77</v>
@@ -24238,16 +24307,16 @@
     </row>
     <row r="38" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B38" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="89" t="s">
-        <v>198</v>
+      <c r="C38" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="D38" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>37</v>
@@ -24268,33 +24337,33 @@
         <v>117</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="110">
-        <v>2603</v>
-      </c>
-      <c r="M38" s="111" t="s">
-        <v>193</v>
+        <v>51</v>
+      </c>
+      <c r="L38" s="5">
+        <v>2608</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>127</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>36</v>
+        <v>198</v>
+      </c>
+      <c r="D39" s="4">
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>37</v>
@@ -24315,30 +24384,30 @@
         <v>117</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="110">
-        <v>2604</v>
-      </c>
-      <c r="M39" s="112" t="s">
-        <v>194</v>
+        <v>47</v>
+      </c>
+      <c r="L39" s="90">
+        <v>2603</v>
+      </c>
+      <c r="M39" s="91" t="s">
+        <v>193</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>129</v>
+      <c r="C40" s="89" t="s">
+        <v>199</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>36</v>
@@ -24362,30 +24431,30 @@
         <v>117</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40" s="5">
-        <v>2605</v>
-      </c>
-      <c r="M40" s="43" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+      <c r="L40" s="90">
+        <v>2604</v>
+      </c>
+      <c r="M40" s="92" t="s">
+        <v>194</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>130</v>
+      <c r="C41" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>36</v>
@@ -24406,33 +24475,33 @@
         <v>81</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L41" s="5">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O41" s="22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>36</v>
@@ -24453,36 +24522,36 @@
         <v>81</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L42" s="5">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="M42" s="43" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>77</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B43" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="4">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>37</v>
@@ -24506,10 +24575,10 @@
         <v>47</v>
       </c>
       <c r="L43" s="5">
-        <v>2609</v>
-      </c>
-      <c r="M43" s="50" t="s">
-        <v>134</v>
+        <v>2607</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>77</v>
@@ -24520,16 +24589,16 @@
     </row>
     <row r="44" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>36</v>
+        <v>133</v>
+      </c>
+      <c r="D44" s="4">
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>37</v>
@@ -24547,16 +24616,16 @@
         <v>81</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>47</v>
       </c>
       <c r="L44" s="5">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="M44" s="50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>77</v>
@@ -24566,196 +24635,195 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75">
+      <c r="A45" s="4">
+        <v>171</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="16">
+        <v>200</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="5">
+        <v>2610</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
         <v>172</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B46" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C46" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D46" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E46" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F46" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="78">
+      <c r="G46" s="78">
         <v>200</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H46" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="I45" s="78" t="s">
+      <c r="I46" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="J45" s="75" t="s">
+      <c r="J46" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="75" t="s">
+      <c r="K46" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="L45" s="79">
+      <c r="L46" s="79">
         <v>2611</v>
       </c>
-      <c r="M45" s="80" t="s">
+      <c r="M46" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="N45" s="81" t="s">
+      <c r="N46" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="O45" s="81" t="s">
+      <c r="O46" s="81" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82">
+    <row r="47" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="82">
         <v>174</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B47" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C47" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D47" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="85" t="s">
+      <c r="E47" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="85" t="s">
+      <c r="F47" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="85">
+      <c r="G47" s="85">
         <v>200</v>
       </c>
-      <c r="H46" s="85" t="s">
+      <c r="H47" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="85" t="s">
+      <c r="I47" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="J46" s="82" t="s">
+      <c r="J47" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="K46" s="82" t="s">
+      <c r="K47" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="L46" s="86">
+      <c r="L47" s="86">
         <v>2614</v>
       </c>
-      <c r="M46" s="87" t="s">
+      <c r="M47" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="N46" s="83" t="s">
+      <c r="N47" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="O46" s="83" t="s">
+      <c r="O47" s="83" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="107" t="s">
+    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="13"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="13"/>
-    </row>
-    <row r="49" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44">
         <v>148</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="44">
-        <v>403</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" s="44">
-        <v>1111</v>
-      </c>
-      <c r="M49" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O49" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P49" s="13"/>
-    </row>
-    <row r="50" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
-        <v>146</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>140</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="D50" s="44" t="s">
         <v>36</v>
@@ -24782,76 +24850,76 @@
         <v>41</v>
       </c>
       <c r="L50" s="44">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M50" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O50" s="45" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>52</v>
+    <row r="51" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44">
+        <v>146</v>
       </c>
       <c r="B51" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="16">
-        <v>401</v>
-      </c>
-      <c r="H51" s="35" t="s">
+      <c r="G51" s="44">
+        <v>403</v>
+      </c>
+      <c r="H51" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L51" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N51" s="23" t="s">
+      <c r="L51" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M51" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>45</v>
+      <c r="C52" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>36</v>
@@ -24878,28 +24946,28 @@
         <v>41</v>
       </c>
       <c r="L52" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="29" t="s">
+      <c r="O52" s="30" t="s">
         <v>36</v>
       </c>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="57" t="s">
         <v>140</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>36</v>
@@ -24911,7 +24979,7 @@
         <v>37</v>
       </c>
       <c r="G53" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>38</v>
@@ -24919,34 +24987,35 @@
       <c r="I53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L53" s="16">
-        <v>1003</v>
-      </c>
-      <c r="M53" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="N53" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O53" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>140</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>36</v>
@@ -24958,7 +25027,7 @@
         <v>37</v>
       </c>
       <c r="G54" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>38</v>
@@ -24970,13 +25039,13 @@
         <v>40</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L54" s="17">
-        <v>1004</v>
+        <v>47</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1003</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>143</v>
@@ -24985,15 +25054,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B55" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>53</v>
+      <c r="C55" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>36</v>
@@ -25005,7 +25074,7 @@
         <v>37</v>
       </c>
       <c r="G55" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>38</v>
@@ -25013,94 +25082,45 @@
       <c r="I55" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M55" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N55" s="23" t="s">
-        <v>42</v>
+      <c r="K55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="17">
+        <v>1004</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="O55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AM55" s="14"/>
-      <c r="AN55" s="14"/>
-      <c r="AO55" s="14"/>
-      <c r="AP55" s="14"/>
-      <c r="AQ55" s="14"/>
-      <c r="AR55" s="14"/>
-      <c r="AS55" s="14"/>
-      <c r="AT55" s="14"/>
-      <c r="AU55" s="14"/>
-      <c r="AV55" s="14"/>
-      <c r="AW55" s="14"/>
-      <c r="AX55" s="14"/>
-      <c r="AY55" s="14"/>
-      <c r="AZ55" s="14"/>
-      <c r="BA55" s="14"/>
-      <c r="BB55" s="14"/>
-      <c r="BC55" s="14"/>
-      <c r="BD55" s="14"/>
-      <c r="BE55" s="14"/>
-      <c r="BF55" s="14"/>
-      <c r="BG55" s="14"/>
-      <c r="BH55" s="14"/>
-      <c r="BI55" s="14"/>
-      <c r="BJ55" s="14"/>
-      <c r="BK55" s="14"/>
-      <c r="BL55" s="14"/>
-      <c r="BM55" s="14"/>
-    </row>
-    <row r="56" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B56" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="54" t="s">
+      <c r="C56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="16">
         <v>403</v>
       </c>
       <c r="H56" s="35" t="s">
@@ -25109,45 +25129,94 @@
       <c r="I56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J56" s="54" t="s">
+      <c r="J56" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L56" s="54">
-        <v>1015</v>
+        <v>47</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1005</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N56" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N56" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+      <c r="AK56" s="14"/>
+      <c r="AL56" s="14"/>
+      <c r="AM56" s="14"/>
+      <c r="AN56" s="14"/>
+      <c r="AO56" s="14"/>
+      <c r="AP56" s="14"/>
+      <c r="AQ56" s="14"/>
+      <c r="AR56" s="14"/>
+      <c r="AS56" s="14"/>
+      <c r="AT56" s="14"/>
+      <c r="AU56" s="14"/>
+      <c r="AV56" s="14"/>
+      <c r="AW56" s="14"/>
+      <c r="AX56" s="14"/>
+      <c r="AY56" s="14"/>
+      <c r="AZ56" s="14"/>
+      <c r="BA56" s="14"/>
+      <c r="BB56" s="14"/>
+      <c r="BC56" s="14"/>
+      <c r="BD56" s="14"/>
+      <c r="BE56" s="14"/>
+      <c r="BF56" s="14"/>
+      <c r="BG56" s="14"/>
+      <c r="BH56" s="14"/>
+      <c r="BI56" s="14"/>
+      <c r="BJ56" s="14"/>
+      <c r="BK56" s="14"/>
+      <c r="BL56" s="14"/>
+      <c r="BM56" s="14"/>
+    </row>
+    <row r="57" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B57" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="4">
         <v>403</v>
       </c>
       <c r="H57" s="35" t="s">
@@ -25156,34 +25225,34 @@
       <c r="I57" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="17">
-        <v>1006</v>
-      </c>
-      <c r="M57" s="23" t="s">
+      <c r="L57" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N57" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>57</v>
-      </c>
-      <c r="N57" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O57" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>58</v>
       </c>
       <c r="B58" s="57" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>36</v>
@@ -25207,13 +25276,13 @@
         <v>40</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L58" s="17">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>143</v>
@@ -25222,15 +25291,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
         <v>140</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>36</v>
@@ -25257,10 +25326,10 @@
         <v>47</v>
       </c>
       <c r="L59" s="17">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>143</v>
@@ -25269,17 +25338,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
         <v>140</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -25301,32 +25370,32 @@
         <v>40</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L60" s="16">
-        <v>1011</v>
+        <v>47</v>
+      </c>
+      <c r="L60" s="17">
+        <v>1008</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N60" s="22" t="s">
         <v>143</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
         <v>140</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -25336,7 +25405,7 @@
         <v>37</v>
       </c>
       <c r="G61" s="16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H61" s="35" t="s">
         <v>38</v>
@@ -25344,266 +25413,314 @@
       <c r="I61" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="16">
+        <v>1011</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="16">
+        <v>404</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" s="4">
         <v>2501</v>
       </c>
-      <c r="M61" s="22" t="s">
+      <c r="M62" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N61" s="22" t="s">
+      <c r="N62" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="O61" s="22" t="s">
+      <c r="O62" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="101" t="s">
+    <row r="63" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>177</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="5">
+        <v>401</v>
+      </c>
+      <c r="H63" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+      <c r="AK63" s="14"/>
+      <c r="AL63" s="14"/>
+      <c r="AM63" s="14"/>
+      <c r="AN63" s="14"/>
+      <c r="AO63" s="14"/>
+      <c r="AP63" s="14"/>
+      <c r="AQ63" s="14"/>
+      <c r="AR63" s="14"/>
+      <c r="AS63" s="14"/>
+      <c r="AT63" s="14"/>
+      <c r="AU63" s="14"/>
+      <c r="AV63" s="14"/>
+      <c r="AW63" s="14"/>
+      <c r="AX63" s="14"/>
+      <c r="AY63" s="14"/>
+      <c r="AZ63" s="14"/>
+      <c r="BA63" s="14"/>
+      <c r="BB63" s="14"/>
+      <c r="BC63" s="14"/>
+      <c r="BD63" s="14"/>
+      <c r="BE63" s="14"/>
+      <c r="BF63" s="14"/>
+      <c r="BG63" s="14"/>
+      <c r="BH63" s="14"/>
+      <c r="BI63" s="14"/>
+      <c r="BJ63" s="14"/>
+      <c r="BK63" s="14"/>
+      <c r="BL63" s="14"/>
+      <c r="BM63" s="14"/>
+      <c r="BN63" s="14"/>
+    </row>
+    <row r="64" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="102"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="106"/>
-      <c r="P62" s="13"/>
-    </row>
-    <row r="63" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="103" t="s">
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="105"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="105"/>
-      <c r="P63" s="13"/>
-    </row>
-    <row r="64" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44">
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="103"/>
+      <c r="M65" s="103"/>
+      <c r="N65" s="103"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44">
         <v>148</v>
-      </c>
-      <c r="B64" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="44">
-        <v>403</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J64" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L64" s="44">
-        <v>1111</v>
-      </c>
-      <c r="M64" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N64" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O64" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P64" s="13"/>
-    </row>
-    <row r="65" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44">
-        <v>146</v>
-      </c>
-      <c r="B65" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" s="44">
-        <v>403</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J65" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K65" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L65" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M65" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N65" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O65" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="P65" s="13"/>
-    </row>
-    <row r="66" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>62</v>
       </c>
       <c r="B66" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="16">
-        <v>401</v>
-      </c>
-      <c r="H66" s="35" t="s">
+      <c r="G66" s="44">
+        <v>403</v>
+      </c>
+      <c r="H66" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L66" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O66" s="30" t="s">
-        <v>36</v>
+      <c r="L66" s="44">
+        <v>1111</v>
+      </c>
+      <c r="M66" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O66" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="P66" s="13"/>
     </row>
-    <row r="67" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>63</v>
+    <row r="67" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="44">
+        <v>146</v>
       </c>
       <c r="B67" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="16">
-        <v>401</v>
-      </c>
-      <c r="H67" s="35" t="s">
+      <c r="G67" s="44">
+        <v>403</v>
+      </c>
+      <c r="H67" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L67" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N67" s="23" t="s">
+      <c r="L67" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M67" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O67" s="29" t="s">
-        <v>36</v>
-      </c>
       <c r="P67" s="13"/>
     </row>
-    <row r="68" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" s="57" t="s">
         <v>151</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>36</v>
@@ -25615,7 +25732,7 @@
         <v>37</v>
       </c>
       <c r="G68" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H68" s="35" t="s">
         <v>38</v>
@@ -25623,34 +25740,35 @@
       <c r="I68" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J68" s="17" t="s">
+      <c r="J68" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K68" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L68" s="17">
-        <v>1003</v>
-      </c>
-      <c r="M68" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N68" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" s="13"/>
+    </row>
+    <row r="69" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B69" s="57" t="s">
         <v>151</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>36</v>
@@ -25662,7 +25780,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="16">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H69" s="35" t="s">
         <v>38</v>
@@ -25670,34 +25788,35 @@
       <c r="I69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L69" s="17">
-        <v>1004</v>
-      </c>
-      <c r="M69" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N69" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O69" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N69" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" s="13"/>
+    </row>
+    <row r="70" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B70" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>53</v>
+      <c r="C70" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>36</v>
@@ -25717,95 +25836,46 @@
       <c r="I70" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L70" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M70" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N70" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O70" s="22" t="s">
+      <c r="L70" s="17">
+        <v>1003</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O70" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
-      <c r="W70" s="14"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="14"/>
-      <c r="AN70" s="14"/>
-      <c r="AO70" s="14"/>
-      <c r="AP70" s="14"/>
-      <c r="AQ70" s="14"/>
-      <c r="AR70" s="14"/>
-      <c r="AS70" s="14"/>
-      <c r="AT70" s="14"/>
-      <c r="AU70" s="14"/>
-      <c r="AV70" s="14"/>
-      <c r="AW70" s="14"/>
-      <c r="AX70" s="14"/>
-      <c r="AY70" s="14"/>
-      <c r="AZ70" s="14"/>
-      <c r="BA70" s="14"/>
-      <c r="BB70" s="14"/>
-      <c r="BC70" s="14"/>
-      <c r="BD70" s="14"/>
-      <c r="BE70" s="14"/>
-      <c r="BF70" s="14"/>
-      <c r="BG70" s="14"/>
-      <c r="BH70" s="14"/>
-      <c r="BI70" s="14"/>
-      <c r="BJ70" s="14"/>
-      <c r="BK70" s="14"/>
-      <c r="BL70" s="14"/>
-      <c r="BM70" s="14"/>
-    </row>
-    <row r="71" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B71" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="54" t="s">
+      <c r="C71" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="54" t="s">
+      <c r="E71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="54" t="s">
+      <c r="F71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G71" s="4">
-        <v>403</v>
+      <c r="G71" s="16">
+        <v>400</v>
       </c>
       <c r="H71" s="35" t="s">
         <v>38</v>
@@ -25813,34 +25883,34 @@
       <c r="I71" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J71" s="54" t="s">
+      <c r="J71" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L71" s="54">
-        <v>1015</v>
+      <c r="L71" s="17">
+        <v>1004</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O71" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B72" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>56</v>
+      <c r="C72" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>36</v>
@@ -25860,45 +25930,94 @@
       <c r="I72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="16" t="s">
+      <c r="J72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K72" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L72" s="17">
-        <v>1006</v>
+      <c r="K72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" s="5">
+        <v>1005</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N72" s="22" t="s">
-        <v>143</v>
+        <v>54</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="O72" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+      <c r="AK72" s="14"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="14"/>
+      <c r="AN72" s="14"/>
+      <c r="AO72" s="14"/>
+      <c r="AP72" s="14"/>
+      <c r="AQ72" s="14"/>
+      <c r="AR72" s="14"/>
+      <c r="AS72" s="14"/>
+      <c r="AT72" s="14"/>
+      <c r="AU72" s="14"/>
+      <c r="AV72" s="14"/>
+      <c r="AW72" s="14"/>
+      <c r="AX72" s="14"/>
+      <c r="AY72" s="14"/>
+      <c r="AZ72" s="14"/>
+      <c r="BA72" s="14"/>
+      <c r="BB72" s="14"/>
+      <c r="BC72" s="14"/>
+      <c r="BD72" s="14"/>
+      <c r="BE72" s="14"/>
+      <c r="BF72" s="14"/>
+      <c r="BG72" s="14"/>
+      <c r="BH72" s="14"/>
+      <c r="BI72" s="14"/>
+      <c r="BJ72" s="14"/>
+      <c r="BK72" s="14"/>
+      <c r="BL72" s="14"/>
+      <c r="BM72" s="14"/>
+    </row>
+    <row r="73" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B73" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="4">
         <v>403</v>
       </c>
       <c r="H73" s="35" t="s">
@@ -25907,34 +26026,34 @@
       <c r="I73" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K73" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L73" s="17">
-        <v>1007</v>
+      <c r="K73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L73" s="54">
+        <v>1015</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O73" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O73" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B74" s="57" t="s">
         <v>151</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>36</v>
@@ -25958,13 +26077,13 @@
         <v>40</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L74" s="17">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>143</v>
@@ -25973,17 +26092,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75" s="57" t="s">
         <v>151</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -26005,30 +26124,30 @@
         <v>40</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L75" s="16">
-        <v>1011</v>
-      </c>
-      <c r="M75" s="23" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="L75" s="17">
+        <v>1007</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>143</v>
       </c>
       <c r="O75" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76" s="57" t="s">
         <v>151</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>36</v>
@@ -26040,7 +26159,7 @@
         <v>37</v>
       </c>
       <c r="G76" s="16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H76" s="35" t="s">
         <v>38</v>
@@ -26048,186 +26167,142 @@
       <c r="I76" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L76" s="5">
-        <v>2506</v>
+      <c r="L76" s="17">
+        <v>1008</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>143</v>
       </c>
       <c r="O76" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>70</v>
+      </c>
+      <c r="B77" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="16">
+        <v>403</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" s="16">
+        <v>1011</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N77" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O77" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>71</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="16">
+        <v>404</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" s="5">
+        <v>2506</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O78" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="102"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="102"/>
-      <c r="J77" s="102"/>
-      <c r="K77" s="102"/>
-      <c r="L77" s="102"/>
-      <c r="M77" s="102"/>
-      <c r="N77" s="102"/>
-      <c r="O77" s="102"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="13"/>
-      <c r="AD77" s="13"/>
-      <c r="AE77" s="13"/>
-      <c r="AF77" s="13"/>
-      <c r="AG77" s="13"/>
-      <c r="AH77" s="13"/>
-      <c r="AI77" s="13"/>
-      <c r="AJ77" s="13"/>
-      <c r="AK77" s="13"/>
-      <c r="AL77" s="13"/>
-      <c r="AM77" s="13"/>
-      <c r="AN77" s="13"/>
-      <c r="AO77" s="13"/>
-      <c r="AP77" s="13"/>
-      <c r="AQ77" s="13"/>
-      <c r="AR77" s="13"/>
-      <c r="AS77" s="13"/>
-      <c r="AT77" s="13"/>
-      <c r="AU77" s="13"/>
-      <c r="AV77" s="13"/>
-      <c r="AW77" s="13"/>
-      <c r="AX77" s="13"/>
-      <c r="AY77" s="13"/>
-      <c r="AZ77" s="13"/>
-      <c r="BA77" s="13"/>
-      <c r="BB77" s="13"/>
-      <c r="BC77" s="13"/>
-      <c r="BD77" s="13"/>
-      <c r="BE77" s="13"/>
-      <c r="BF77" s="13"/>
-      <c r="BG77" s="13"/>
-      <c r="BH77" s="13"/>
-      <c r="BI77" s="13"/>
-      <c r="BJ77" s="13"/>
-      <c r="BK77" s="13"/>
-      <c r="BL77" s="13"/>
-      <c r="BM77" s="13"/>
-    </row>
-    <row r="78" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="104"/>
-      <c r="C78" s="104"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="104"/>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="104"/>
-      <c r="J78" s="104"/>
-      <c r="K78" s="104"/>
-      <c r="L78" s="104"/>
-      <c r="M78" s="104"/>
-      <c r="N78" s="104"/>
-      <c r="O78" s="104"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="13"/>
-      <c r="AD78" s="13"/>
-      <c r="AE78" s="13"/>
-      <c r="AF78" s="13"/>
-      <c r="AG78" s="13"/>
-      <c r="AH78" s="13"/>
-      <c r="AI78" s="13"/>
-      <c r="AJ78" s="13"/>
-      <c r="AK78" s="13"/>
-      <c r="AL78" s="13"/>
-      <c r="AM78" s="13"/>
-      <c r="AN78" s="13"/>
-      <c r="AO78" s="13"/>
-      <c r="AP78" s="13"/>
-      <c r="AQ78" s="13"/>
-      <c r="AR78" s="13"/>
-      <c r="AS78" s="13"/>
-      <c r="AT78" s="13"/>
-      <c r="AU78" s="13"/>
-      <c r="AV78" s="13"/>
-      <c r="AW78" s="13"/>
-      <c r="AX78" s="13"/>
-      <c r="AY78" s="13"/>
-      <c r="AZ78" s="13"/>
-      <c r="BA78" s="13"/>
-      <c r="BB78" s="13"/>
-      <c r="BC78" s="13"/>
-      <c r="BD78" s="13"/>
-      <c r="BE78" s="13"/>
-      <c r="BF78" s="13"/>
-      <c r="BG78" s="13"/>
-      <c r="BH78" s="13"/>
-      <c r="BI78" s="13"/>
-      <c r="BJ78" s="13"/>
-      <c r="BK78" s="13"/>
-      <c r="BL78" s="13"/>
-      <c r="BM78" s="13"/>
-    </row>
-    <row r="79" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44">
-        <v>146</v>
+    <row r="79" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>178</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="44" t="s">
+      <c r="E79" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="44" t="s">
+      <c r="F79" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="44">
-        <v>403</v>
-      </c>
-      <c r="H79" s="44" t="s">
+      <c r="G79" s="5">
+        <v>401</v>
+      </c>
+      <c r="H79" s="85" t="s">
         <v>38</v>
       </c>
       <c r="I79" s="16" t="s">
@@ -26239,115 +26314,87 @@
       <c r="K79" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L79" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M79" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N79" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O79" s="45" t="s">
+      <c r="L79" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N79" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="13"/>
-      <c r="AD79" s="13"/>
-      <c r="AE79" s="13"/>
-      <c r="AF79" s="13"/>
-      <c r="AG79" s="13"/>
-      <c r="AH79" s="13"/>
-      <c r="AI79" s="13"/>
-      <c r="AJ79" s="13"/>
-      <c r="AK79" s="13"/>
-      <c r="AL79" s="13"/>
-      <c r="AM79" s="13"/>
-      <c r="AN79" s="13"/>
-      <c r="AO79" s="13"/>
-      <c r="AP79" s="13"/>
-      <c r="AQ79" s="13"/>
-      <c r="AR79" s="13"/>
-      <c r="AS79" s="13"/>
-      <c r="AT79" s="13"/>
-      <c r="AU79" s="13"/>
-      <c r="AV79" s="13"/>
-      <c r="AW79" s="13"/>
-      <c r="AX79" s="13"/>
-      <c r="AY79" s="13"/>
-      <c r="AZ79" s="13"/>
-      <c r="BA79" s="13"/>
-      <c r="BB79" s="13"/>
-      <c r="BC79" s="13"/>
-      <c r="BD79" s="13"/>
-      <c r="BE79" s="13"/>
-      <c r="BF79" s="13"/>
-      <c r="BG79" s="13"/>
-      <c r="BH79" s="13"/>
-      <c r="BI79" s="13"/>
-      <c r="BJ79" s="13"/>
-      <c r="BK79" s="13"/>
-      <c r="BL79" s="13"/>
-      <c r="BM79" s="13"/>
-    </row>
-    <row r="80" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>72</v>
-      </c>
-      <c r="B80" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="O79" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" s="16">
-        <v>401</v>
-      </c>
-      <c r="H80" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L80" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M80" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N80" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O80" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="14"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
+      <c r="AK79" s="14"/>
+      <c r="AL79" s="14"/>
+      <c r="AM79" s="14"/>
+      <c r="AN79" s="14"/>
+      <c r="AO79" s="14"/>
+      <c r="AP79" s="14"/>
+      <c r="AQ79" s="14"/>
+      <c r="AR79" s="14"/>
+      <c r="AS79" s="14"/>
+      <c r="AT79" s="14"/>
+      <c r="AU79" s="14"/>
+      <c r="AV79" s="14"/>
+      <c r="AW79" s="14"/>
+      <c r="AX79" s="14"/>
+      <c r="AY79" s="14"/>
+      <c r="AZ79" s="14"/>
+      <c r="BA79" s="14"/>
+      <c r="BB79" s="14"/>
+      <c r="BC79" s="14"/>
+      <c r="BD79" s="14"/>
+      <c r="BE79" s="14"/>
+      <c r="BF79" s="14"/>
+      <c r="BG79" s="14"/>
+      <c r="BH79" s="14"/>
+      <c r="BI79" s="14"/>
+      <c r="BJ79" s="14"/>
+      <c r="BK79" s="14"/>
+      <c r="BL79" s="14"/>
+      <c r="BM79" s="14"/>
+      <c r="BN79" s="14"/>
+    </row>
+    <row r="80" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="101"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
@@ -26399,52 +26446,24 @@
       <c r="BL80" s="13"/>
       <c r="BM80" s="13"/>
     </row>
-    <row r="81" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>73</v>
-      </c>
-      <c r="B81" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" s="16">
-        <v>401</v>
-      </c>
-      <c r="H81" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L81" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M81" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N81" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O81" s="29" t="s">
-        <v>36</v>
-      </c>
+    <row r="81" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="103"/>
+      <c r="K81" s="103"/>
+      <c r="L81" s="103"/>
+      <c r="M81" s="103"/>
+      <c r="N81" s="103"/>
+      <c r="O81" s="103"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
@@ -26496,111 +26515,112 @@
       <c r="BL81" s="13"/>
       <c r="BM81" s="13"/>
     </row>
-    <row r="82" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>75</v>
+    <row r="82" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44">
+        <v>146</v>
       </c>
       <c r="B82" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="C82" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="44">
         <v>403</v>
       </c>
-      <c r="H82" s="35" t="s">
+      <c r="H82" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I82" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K82" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L82" s="5">
-        <v>1003</v>
-      </c>
-      <c r="M82" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="N82" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="O82" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="14"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="14"/>
-      <c r="Z82" s="14"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="14"/>
-      <c r="AC82" s="14"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="14"/>
-      <c r="AF82" s="14"/>
-      <c r="AG82" s="14"/>
-      <c r="AH82" s="14"/>
-      <c r="AI82" s="14"/>
-      <c r="AJ82" s="14"/>
-      <c r="AK82" s="14"/>
-      <c r="AL82" s="14"/>
-      <c r="AM82" s="14"/>
-      <c r="AN82" s="14"/>
-      <c r="AO82" s="14"/>
-      <c r="AP82" s="14"/>
-      <c r="AQ82" s="14"/>
-      <c r="AR82" s="14"/>
-      <c r="AS82" s="14"/>
-      <c r="AT82" s="14"/>
-      <c r="AU82" s="14"/>
-      <c r="AV82" s="14"/>
-      <c r="AW82" s="14"/>
-      <c r="AX82" s="14"/>
-      <c r="AY82" s="14"/>
-      <c r="AZ82" s="14"/>
-      <c r="BA82" s="14"/>
-      <c r="BB82" s="14"/>
-      <c r="BC82" s="14"/>
-      <c r="BD82" s="14"/>
-      <c r="BE82" s="14"/>
-      <c r="BF82" s="14"/>
-      <c r="BG82" s="14"/>
-      <c r="BH82" s="14"/>
-      <c r="BI82" s="14"/>
-      <c r="BJ82" s="14"/>
-      <c r="BK82" s="14"/>
-      <c r="BL82" s="14"/>
-      <c r="BM82" s="14"/>
-    </row>
-    <row r="83" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M82" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
+      <c r="AC82" s="13"/>
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="13"/>
+      <c r="AF82" s="13"/>
+      <c r="AG82" s="13"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="13"/>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
+      <c r="AN82" s="13"/>
+      <c r="AO82" s="13"/>
+      <c r="AP82" s="13"/>
+      <c r="AQ82" s="13"/>
+      <c r="AR82" s="13"/>
+      <c r="AS82" s="13"/>
+      <c r="AT82" s="13"/>
+      <c r="AU82" s="13"/>
+      <c r="AV82" s="13"/>
+      <c r="AW82" s="13"/>
+      <c r="AX82" s="13"/>
+      <c r="AY82" s="13"/>
+      <c r="AZ82" s="13"/>
+      <c r="BA82" s="13"/>
+      <c r="BB82" s="13"/>
+      <c r="BC82" s="13"/>
+      <c r="BD82" s="13"/>
+      <c r="BE82" s="13"/>
+      <c r="BF82" s="13"/>
+      <c r="BG82" s="13"/>
+      <c r="BH82" s="13"/>
+      <c r="BI82" s="13"/>
+      <c r="BJ82" s="13"/>
+      <c r="BK82" s="13"/>
+      <c r="BL82" s="13"/>
+      <c r="BM82" s="13"/>
+    </row>
+    <row r="83" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B83" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>50</v>
+      <c r="C83" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>36</v>
@@ -26612,7 +26632,7 @@
         <v>37</v>
       </c>
       <c r="G83" s="16">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H83" s="35" t="s">
         <v>38</v>
@@ -26624,79 +26644,80 @@
         <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L83" s="5">
-        <v>1004</v>
-      </c>
-      <c r="M83" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="N83" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="O83" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="14"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="14"/>
-      <c r="Z83" s="14"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="14"/>
-      <c r="AG83" s="14"/>
-      <c r="AH83" s="14"/>
-      <c r="AI83" s="14"/>
-      <c r="AJ83" s="14"/>
-      <c r="AK83" s="14"/>
-      <c r="AL83" s="14"/>
-      <c r="AM83" s="14"/>
-      <c r="AN83" s="14"/>
-      <c r="AO83" s="14"/>
-      <c r="AP83" s="14"/>
-      <c r="AQ83" s="14"/>
-      <c r="AR83" s="14"/>
-      <c r="AS83" s="14"/>
-      <c r="AT83" s="14"/>
-      <c r="AU83" s="14"/>
-      <c r="AV83" s="14"/>
-      <c r="AW83" s="14"/>
-      <c r="AX83" s="14"/>
-      <c r="AY83" s="14"/>
-      <c r="AZ83" s="14"/>
-      <c r="BA83" s="14"/>
-      <c r="BB83" s="14"/>
-      <c r="BC83" s="14"/>
-      <c r="BD83" s="14"/>
-      <c r="BE83" s="14"/>
-      <c r="BF83" s="14"/>
-      <c r="BG83" s="14"/>
-      <c r="BH83" s="14"/>
-      <c r="BI83" s="14"/>
-      <c r="BJ83" s="14"/>
-      <c r="BK83" s="14"/>
-      <c r="BL83" s="14"/>
-      <c r="BM83" s="14"/>
-    </row>
-    <row r="84" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N83" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13"/>
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13"/>
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13"/>
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="13"/>
+      <c r="AO83" s="13"/>
+      <c r="AP83" s="13"/>
+      <c r="AQ83" s="13"/>
+      <c r="AR83" s="13"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="13"/>
+      <c r="AU83" s="13"/>
+      <c r="AV83" s="13"/>
+      <c r="AW83" s="13"/>
+      <c r="AX83" s="13"/>
+      <c r="AY83" s="13"/>
+      <c r="AZ83" s="13"/>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="13"/>
+      <c r="BC83" s="13"/>
+      <c r="BD83" s="13"/>
+      <c r="BE83" s="13"/>
+      <c r="BF83" s="13"/>
+      <c r="BG83" s="13"/>
+      <c r="BH83" s="13"/>
+      <c r="BI83" s="13"/>
+      <c r="BJ83" s="13"/>
+      <c r="BK83" s="13"/>
+      <c r="BL83" s="13"/>
+      <c r="BM83" s="13"/>
+    </row>
+    <row r="84" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B84" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>53</v>
+      <c r="C84" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>36</v>
@@ -26708,7 +26729,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H84" s="35" t="s">
         <v>38</v>
@@ -26720,90 +26741,91 @@
         <v>40</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L84" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M84" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N84" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="O84" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="14"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="14"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="14"/>
-      <c r="AF84" s="14"/>
-      <c r="AG84" s="14"/>
-      <c r="AH84" s="14"/>
-      <c r="AI84" s="14"/>
-      <c r="AJ84" s="14"/>
-      <c r="AK84" s="14"/>
-      <c r="AL84" s="14"/>
-      <c r="AM84" s="14"/>
-      <c r="AN84" s="14"/>
-      <c r="AO84" s="14"/>
-      <c r="AP84" s="14"/>
-      <c r="AQ84" s="14"/>
-      <c r="AR84" s="14"/>
-      <c r="AS84" s="14"/>
-      <c r="AT84" s="14"/>
-      <c r="AU84" s="14"/>
-      <c r="AV84" s="14"/>
-      <c r="AW84" s="14"/>
-      <c r="AX84" s="14"/>
-      <c r="AY84" s="14"/>
-      <c r="AZ84" s="14"/>
-      <c r="BA84" s="14"/>
-      <c r="BB84" s="14"/>
-      <c r="BC84" s="14"/>
-      <c r="BD84" s="14"/>
-      <c r="BE84" s="14"/>
-      <c r="BF84" s="14"/>
-      <c r="BG84" s="14"/>
-      <c r="BH84" s="14"/>
-      <c r="BI84" s="14"/>
-      <c r="BJ84" s="14"/>
-      <c r="BK84" s="14"/>
-      <c r="BL84" s="14"/>
-      <c r="BM84" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="L84" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N84" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="13"/>
+      <c r="AP84" s="13"/>
+      <c r="AQ84" s="13"/>
+      <c r="AR84" s="13"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="13"/>
+      <c r="AU84" s="13"/>
+      <c r="AV84" s="13"/>
+      <c r="AW84" s="13"/>
+      <c r="AX84" s="13"/>
+      <c r="AY84" s="13"/>
+      <c r="AZ84" s="13"/>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="13"/>
+      <c r="BC84" s="13"/>
+      <c r="BD84" s="13"/>
+      <c r="BE84" s="13"/>
+      <c r="BF84" s="13"/>
+      <c r="BG84" s="13"/>
+      <c r="BH84" s="13"/>
+      <c r="BI84" s="13"/>
+      <c r="BJ84" s="13"/>
+      <c r="BK84" s="13"/>
+      <c r="BL84" s="13"/>
+      <c r="BM84" s="13"/>
     </row>
     <row r="85" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B85" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="54" t="s">
+      <c r="C85" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="54" t="s">
+      <c r="E85" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="54" t="s">
+      <c r="F85" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="16">
         <v>403</v>
       </c>
       <c r="H85" s="35" t="s">
@@ -26812,23 +26834,23 @@
       <c r="I85" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="54" t="s">
+      <c r="J85" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L85" s="54">
-        <v>1015</v>
+        <v>47</v>
+      </c>
+      <c r="L85" s="5">
+        <v>1003</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="N85" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O85" s="55" t="s">
-        <v>36</v>
+        <v>158</v>
+      </c>
+      <c r="O85" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="Q85" s="14"/>
       <c r="R85" s="14"/>
@@ -26880,15 +26902,15 @@
       <c r="BL85" s="14"/>
       <c r="BM85" s="14"/>
     </row>
-    <row r="86" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>36</v>
@@ -26900,7 +26922,7 @@
         <v>37</v>
       </c>
       <c r="G86" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H86" s="35" t="s">
         <v>38</v>
@@ -26915,16 +26937,16 @@
         <v>51</v>
       </c>
       <c r="L86" s="5">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>158</v>
       </c>
       <c r="O86" s="22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q86" s="14"/>
       <c r="R86" s="14"/>
@@ -26976,15 +26998,15 @@
       <c r="BL86" s="14"/>
       <c r="BM86" s="14"/>
     </row>
-    <row r="87" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B87" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>36</v>
@@ -27011,16 +27033,16 @@
         <v>47</v>
       </c>
       <c r="L87" s="5">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>158</v>
       </c>
       <c r="O87" s="22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q87" s="14"/>
       <c r="R87" s="14"/>
@@ -27072,26 +27094,26 @@
       <c r="BL87" s="14"/>
       <c r="BM87" s="14"/>
     </row>
-    <row r="88" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B88" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="4">
         <v>403</v>
       </c>
       <c r="H88" s="35" t="s">
@@ -27100,23 +27122,23 @@
       <c r="I88" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L88" s="5">
-        <v>1008</v>
+        <v>51</v>
+      </c>
+      <c r="L88" s="54">
+        <v>1015</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="N88" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="O88" s="22" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="O88" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="Q88" s="14"/>
       <c r="R88" s="14"/>
@@ -27168,15 +27190,15 @@
       <c r="BL88" s="14"/>
       <c r="BM88" s="14"/>
     </row>
-    <row r="89" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B89" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>36</v>
@@ -27200,19 +27222,19 @@
         <v>40</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L89" s="5">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>158</v>
       </c>
       <c r="O89" s="22" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="Q89" s="14"/>
       <c r="R89" s="14"/>
@@ -27264,15 +27286,15 @@
       <c r="BL89" s="14"/>
       <c r="BM89" s="14"/>
     </row>
-    <row r="90" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18">
-        <v>169</v>
+    <row r="90" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>79</v>
       </c>
       <c r="B90" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="51" t="s">
-        <v>161</v>
+      <c r="C90" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>36</v>
@@ -27284,7 +27306,7 @@
         <v>37</v>
       </c>
       <c r="G90" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H90" s="35" t="s">
         <v>38</v>
@@ -27298,90 +27320,89 @@
       <c r="K90" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L90" s="18">
-        <v>3101</v>
-      </c>
-      <c r="M90" s="40" t="s">
-        <v>162</v>
+      <c r="L90" s="5">
+        <v>1007</v>
+      </c>
+      <c r="M90" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>158</v>
       </c>
       <c r="O90" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-      <c r="Y90" s="13"/>
-      <c r="Z90" s="13"/>
-      <c r="AA90" s="13"/>
-      <c r="AB90" s="13"/>
-      <c r="AC90" s="13"/>
-      <c r="AD90" s="13"/>
-      <c r="AE90" s="13"/>
-      <c r="AF90" s="13"/>
-      <c r="AG90" s="13"/>
-      <c r="AH90" s="13"/>
-      <c r="AI90" s="13"/>
-      <c r="AJ90" s="13"/>
-      <c r="AK90" s="13"/>
-      <c r="AL90" s="13"/>
-      <c r="AM90" s="13"/>
-      <c r="AN90" s="13"/>
-      <c r="AO90" s="13"/>
-      <c r="AP90" s="13"/>
-      <c r="AQ90" s="13"/>
-      <c r="AR90" s="13"/>
-      <c r="AS90" s="13"/>
-      <c r="AT90" s="13"/>
-      <c r="AU90" s="13"/>
-      <c r="AV90" s="13"/>
-      <c r="AW90" s="13"/>
-      <c r="AX90" s="13"/>
-      <c r="AY90" s="13"/>
-      <c r="AZ90" s="13"/>
-      <c r="BA90" s="13"/>
-      <c r="BB90" s="13"/>
-      <c r="BC90" s="13"/>
-      <c r="BD90" s="13"/>
-      <c r="BE90" s="13"/>
-      <c r="BF90" s="13"/>
-      <c r="BG90" s="13"/>
-      <c r="BH90" s="13"/>
-      <c r="BI90" s="13"/>
-      <c r="BJ90" s="13"/>
-      <c r="BK90" s="13"/>
-      <c r="BL90" s="13"/>
-      <c r="BM90" s="13"/>
-    </row>
-    <row r="91" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="35">
-        <v>156</v>
+        <v>58</v>
+      </c>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="14"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="14"/>
+      <c r="Z90" s="14"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="14"/>
+      <c r="AC90" s="14"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="14"/>
+      <c r="AF90" s="14"/>
+      <c r="AG90" s="14"/>
+      <c r="AH90" s="14"/>
+      <c r="AI90" s="14"/>
+      <c r="AJ90" s="14"/>
+      <c r="AK90" s="14"/>
+      <c r="AL90" s="14"/>
+      <c r="AM90" s="14"/>
+      <c r="AN90" s="14"/>
+      <c r="AO90" s="14"/>
+      <c r="AP90" s="14"/>
+      <c r="AQ90" s="14"/>
+      <c r="AR90" s="14"/>
+      <c r="AS90" s="14"/>
+      <c r="AT90" s="14"/>
+      <c r="AU90" s="14"/>
+      <c r="AV90" s="14"/>
+      <c r="AW90" s="14"/>
+      <c r="AX90" s="14"/>
+      <c r="AY90" s="14"/>
+      <c r="AZ90" s="14"/>
+      <c r="BA90" s="14"/>
+      <c r="BB90" s="14"/>
+      <c r="BC90" s="14"/>
+      <c r="BD90" s="14"/>
+      <c r="BE90" s="14"/>
+      <c r="BF90" s="14"/>
+      <c r="BG90" s="14"/>
+      <c r="BH90" s="14"/>
+      <c r="BI90" s="14"/>
+      <c r="BJ90" s="14"/>
+      <c r="BK90" s="14"/>
+      <c r="BL90" s="14"/>
+      <c r="BM90" s="14"/>
+    </row>
+    <row r="91" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>80</v>
       </c>
       <c r="B91" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D91" s="35" t="s">
+      <c r="C91" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="35" t="s">
+      <c r="F91" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G91" s="35">
-        <v>400</v>
+      <c r="G91" s="16">
+        <v>403</v>
       </c>
       <c r="H91" s="35" t="s">
         <v>38</v>
@@ -27389,99 +27410,98 @@
       <c r="I91" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J91" s="35" t="s">
+      <c r="J91" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L91" s="35">
-        <v>3014</v>
-      </c>
-      <c r="M91" s="47" t="s">
-        <v>165</v>
+      <c r="K91" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L91" s="5">
+        <v>1008</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="O91" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
-      <c r="AA91" s="13"/>
-      <c r="AB91" s="13"/>
-      <c r="AC91" s="13"/>
-      <c r="AD91" s="13"/>
-      <c r="AE91" s="13"/>
-      <c r="AF91" s="13"/>
-      <c r="AG91" s="13"/>
-      <c r="AH91" s="13"/>
-      <c r="AI91" s="13"/>
-      <c r="AJ91" s="13"/>
-      <c r="AK91" s="13"/>
-      <c r="AL91" s="13"/>
-      <c r="AM91" s="13"/>
-      <c r="AN91" s="13"/>
-      <c r="AO91" s="13"/>
-      <c r="AP91" s="13"/>
-      <c r="AQ91" s="13"/>
-      <c r="AR91" s="13"/>
-      <c r="AS91" s="13"/>
-      <c r="AT91" s="13"/>
-      <c r="AU91" s="13"/>
-      <c r="AV91" s="13"/>
-      <c r="AW91" s="13"/>
-      <c r="AX91" s="13"/>
-      <c r="AY91" s="13"/>
-      <c r="AZ91" s="13"/>
-      <c r="BA91" s="13"/>
-      <c r="BB91" s="13"/>
-      <c r="BC91" s="13"/>
-      <c r="BD91" s="13"/>
-      <c r="BE91" s="13"/>
-      <c r="BF91" s="13"/>
-      <c r="BG91" s="13"/>
-      <c r="BH91" s="13"/>
-      <c r="BI91" s="13"/>
-      <c r="BJ91" s="13"/>
-      <c r="BK91" s="13"/>
-      <c r="BL91" s="13"/>
-      <c r="BM91" s="13"/>
+      <c r="O91" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
+      <c r="AC91" s="14"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="14"/>
+      <c r="AF91" s="14"/>
+      <c r="AG91" s="14"/>
+      <c r="AH91" s="14"/>
+      <c r="AI91" s="14"/>
+      <c r="AJ91" s="14"/>
+      <c r="AK91" s="14"/>
+      <c r="AL91" s="14"/>
+      <c r="AM91" s="14"/>
+      <c r="AN91" s="14"/>
+      <c r="AO91" s="14"/>
+      <c r="AP91" s="14"/>
+      <c r="AQ91" s="14"/>
+      <c r="AR91" s="14"/>
+      <c r="AS91" s="14"/>
+      <c r="AT91" s="14"/>
+      <c r="AU91" s="14"/>
+      <c r="AV91" s="14"/>
+      <c r="AW91" s="14"/>
+      <c r="AX91" s="14"/>
+      <c r="AY91" s="14"/>
+      <c r="AZ91" s="14"/>
+      <c r="BA91" s="14"/>
+      <c r="BB91" s="14"/>
+      <c r="BC91" s="14"/>
+      <c r="BD91" s="14"/>
+      <c r="BE91" s="14"/>
+      <c r="BF91" s="14"/>
+      <c r="BG91" s="14"/>
+      <c r="BH91" s="14"/>
+      <c r="BI91" s="14"/>
+      <c r="BJ91" s="14"/>
+      <c r="BK91" s="14"/>
+      <c r="BL91" s="14"/>
+      <c r="BM91" s="14"/>
     </row>
     <row r="92" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="B92" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92" s="4">
-        <v>9</v>
-      </c>
-      <c r="E92" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F92" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G92" s="16">
-        <v>200</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>80</v>
+        <v>403</v>
+      </c>
+      <c r="H92" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>39</v>
@@ -27490,45 +27510,94 @@
         <v>40</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L92" s="4">
-        <v>1010</v>
+        <v>41</v>
+      </c>
+      <c r="L92" s="5">
+        <v>1011</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="N92" s="22" t="s">
         <v>158</v>
       </c>
       <c r="O92" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="14"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+      <c r="AF92" s="14"/>
+      <c r="AG92" s="14"/>
+      <c r="AH92" s="14"/>
+      <c r="AI92" s="14"/>
+      <c r="AJ92" s="14"/>
+      <c r="AK92" s="14"/>
+      <c r="AL92" s="14"/>
+      <c r="AM92" s="14"/>
+      <c r="AN92" s="14"/>
+      <c r="AO92" s="14"/>
+      <c r="AP92" s="14"/>
+      <c r="AQ92" s="14"/>
+      <c r="AR92" s="14"/>
+      <c r="AS92" s="14"/>
+      <c r="AT92" s="14"/>
+      <c r="AU92" s="14"/>
+      <c r="AV92" s="14"/>
+      <c r="AW92" s="14"/>
+      <c r="AX92" s="14"/>
+      <c r="AY92" s="14"/>
+      <c r="AZ92" s="14"/>
+      <c r="BA92" s="14"/>
+      <c r="BB92" s="14"/>
+      <c r="BC92" s="14"/>
+      <c r="BD92" s="14"/>
+      <c r="BE92" s="14"/>
+      <c r="BF92" s="14"/>
+      <c r="BG92" s="14"/>
+      <c r="BH92" s="14"/>
+      <c r="BI92" s="14"/>
+      <c r="BJ92" s="14"/>
+      <c r="BK92" s="14"/>
+      <c r="BL92" s="14"/>
+      <c r="BM92" s="14"/>
+    </row>
+    <row r="93" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18">
+        <v>169</v>
       </c>
       <c r="B93" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="35" t="s">
+      <c r="C93" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="F93" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G93" s="16">
-        <v>200</v>
-      </c>
-      <c r="H93" s="16" t="s">
-        <v>80</v>
+        <v>400</v>
+      </c>
+      <c r="H93" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>39</v>
@@ -27537,39 +27606,117 @@
         <v>40</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L93" s="4">
-        <v>3015</v>
-      </c>
-      <c r="M93" s="22" t="s">
-        <v>183</v>
+        <v>47</v>
+      </c>
+      <c r="L93" s="18">
+        <v>3101</v>
+      </c>
+      <c r="M93" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>158</v>
       </c>
       <c r="O93" s="22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="B94" s="102"/>
-      <c r="C94" s="102"/>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
-      <c r="F94" s="102"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="102"/>
-      <c r="I94" s="102"/>
-      <c r="J94" s="102"/>
-      <c r="K94" s="102"/>
-      <c r="L94" s="102"/>
-      <c r="M94" s="102"/>
-      <c r="N94" s="102"/>
-      <c r="O94" s="102"/>
+        <v>163</v>
+      </c>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
+      <c r="X93" s="13"/>
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="13"/>
+      <c r="AA93" s="13"/>
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="13"/>
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="13"/>
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="13"/>
+      <c r="AH93" s="13"/>
+      <c r="AI93" s="13"/>
+      <c r="AJ93" s="13"/>
+      <c r="AK93" s="13"/>
+      <c r="AL93" s="13"/>
+      <c r="AM93" s="13"/>
+      <c r="AN93" s="13"/>
+      <c r="AO93" s="13"/>
+      <c r="AP93" s="13"/>
+      <c r="AQ93" s="13"/>
+      <c r="AR93" s="13"/>
+      <c r="AS93" s="13"/>
+      <c r="AT93" s="13"/>
+      <c r="AU93" s="13"/>
+      <c r="AV93" s="13"/>
+      <c r="AW93" s="13"/>
+      <c r="AX93" s="13"/>
+      <c r="AY93" s="13"/>
+      <c r="AZ93" s="13"/>
+      <c r="BA93" s="13"/>
+      <c r="BB93" s="13"/>
+      <c r="BC93" s="13"/>
+      <c r="BD93" s="13"/>
+      <c r="BE93" s="13"/>
+      <c r="BF93" s="13"/>
+      <c r="BG93" s="13"/>
+      <c r="BH93" s="13"/>
+      <c r="BI93" s="13"/>
+      <c r="BJ93" s="13"/>
+      <c r="BK93" s="13"/>
+      <c r="BL93" s="13"/>
+      <c r="BM93" s="13"/>
+    </row>
+    <row r="94" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="35">
+        <v>156</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="35">
+        <v>400</v>
+      </c>
+      <c r="H94" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L94" s="35">
+        <v>3014</v>
+      </c>
+      <c r="M94" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O94" s="58" t="s">
+        <v>166</v>
+      </c>
       <c r="P94" s="13"/>
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
@@ -27621,269 +27768,341 @@
       <c r="BL94" s="13"/>
       <c r="BM94" s="13"/>
     </row>
-    <row r="95" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="104"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="104"/>
-      <c r="E95" s="104"/>
-      <c r="F95" s="104"/>
-      <c r="G95" s="104"/>
-      <c r="H95" s="104"/>
-      <c r="I95" s="104"/>
-      <c r="J95" s="104"/>
-      <c r="K95" s="104"/>
-      <c r="L95" s="104"/>
-      <c r="M95" s="104"/>
-      <c r="N95" s="104"/>
-      <c r="O95" s="104"/>
-    </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A96" s="44">
-        <v>146</v>
+    <row r="95" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>168</v>
+      </c>
+      <c r="B95" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="4">
+        <v>9</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="16">
+        <v>200</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L95" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O95" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>175</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="44">
-        <v>403</v>
-      </c>
-      <c r="H96" s="44" t="s">
-        <v>38</v>
+      <c r="G96" s="16">
+        <v>200</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J96" s="44" t="s">
+      <c r="J96" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K96" s="44" t="s">
-        <v>41</v>
+      <c r="K96" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="L96" s="4">
-        <v>1016</v>
-      </c>
-      <c r="M96" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N96" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O96" s="45" t="s">
+        <v>3015</v>
+      </c>
+      <c r="M96" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O96" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>179</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="113" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>102</v>
-      </c>
-      <c r="B97" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="5">
         <v>401</v>
       </c>
-      <c r="H97" s="35" t="s">
+      <c r="H97" s="85" t="s">
         <v>38</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L97" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M97" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N97" s="23" t="s">
+      <c r="L97" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M97" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N97" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O97" s="30" t="s">
+      <c r="O97" s="32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>103</v>
-      </c>
-      <c r="B98" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G98" s="16">
-        <v>401</v>
-      </c>
-      <c r="H98" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I98" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L98" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M98" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N98" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O98" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>105</v>
-      </c>
-      <c r="B99" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="4">
-        <v>301</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99" s="16">
-        <v>403</v>
-      </c>
-      <c r="H99" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L99" s="5">
-        <v>1003</v>
-      </c>
-      <c r="M99" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="N99" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O99" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>106</v>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="14"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="14"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="14"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
+      <c r="AC97" s="14"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="14"/>
+      <c r="AF97" s="14"/>
+      <c r="AG97" s="14"/>
+      <c r="AH97" s="14"/>
+      <c r="AI97" s="14"/>
+      <c r="AJ97" s="14"/>
+      <c r="AK97" s="14"/>
+      <c r="AL97" s="14"/>
+      <c r="AM97" s="14"/>
+      <c r="AN97" s="14"/>
+      <c r="AO97" s="14"/>
+      <c r="AP97" s="14"/>
+      <c r="AQ97" s="14"/>
+      <c r="AR97" s="14"/>
+      <c r="AS97" s="14"/>
+      <c r="AT97" s="14"/>
+      <c r="AU97" s="14"/>
+      <c r="AV97" s="14"/>
+      <c r="AW97" s="14"/>
+      <c r="AX97" s="14"/>
+      <c r="AY97" s="14"/>
+      <c r="AZ97" s="14"/>
+      <c r="BA97" s="14"/>
+      <c r="BB97" s="14"/>
+      <c r="BC97" s="14"/>
+      <c r="BD97" s="14"/>
+      <c r="BE97" s="14"/>
+      <c r="BF97" s="14"/>
+      <c r="BG97" s="14"/>
+      <c r="BH97" s="14"/>
+      <c r="BI97" s="14"/>
+      <c r="BJ97" s="14"/>
+      <c r="BK97" s="14"/>
+      <c r="BL97" s="14"/>
+      <c r="BM97" s="14"/>
+      <c r="BN97" s="14"/>
+    </row>
+    <row r="98" spans="1:66" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="101"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
+      <c r="AA98" s="13"/>
+      <c r="AB98" s="13"/>
+      <c r="AC98" s="13"/>
+      <c r="AD98" s="13"/>
+      <c r="AE98" s="13"/>
+      <c r="AF98" s="13"/>
+      <c r="AG98" s="13"/>
+      <c r="AH98" s="13"/>
+      <c r="AI98" s="13"/>
+      <c r="AJ98" s="13"/>
+      <c r="AK98" s="13"/>
+      <c r="AL98" s="13"/>
+      <c r="AM98" s="13"/>
+      <c r="AN98" s="13"/>
+      <c r="AO98" s="13"/>
+      <c r="AP98" s="13"/>
+      <c r="AQ98" s="13"/>
+      <c r="AR98" s="13"/>
+      <c r="AS98" s="13"/>
+      <c r="AT98" s="13"/>
+      <c r="AU98" s="13"/>
+      <c r="AV98" s="13"/>
+      <c r="AW98" s="13"/>
+      <c r="AX98" s="13"/>
+      <c r="AY98" s="13"/>
+      <c r="AZ98" s="13"/>
+      <c r="BA98" s="13"/>
+      <c r="BB98" s="13"/>
+      <c r="BC98" s="13"/>
+      <c r="BD98" s="13"/>
+      <c r="BE98" s="13"/>
+      <c r="BF98" s="13"/>
+      <c r="BG98" s="13"/>
+      <c r="BH98" s="13"/>
+      <c r="BI98" s="13"/>
+      <c r="BJ98" s="13"/>
+      <c r="BK98" s="13"/>
+      <c r="BL98" s="13"/>
+      <c r="BM98" s="13"/>
+    </row>
+    <row r="99" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="103"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="103"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="103"/>
+      <c r="J99" s="103"/>
+      <c r="K99" s="103"/>
+      <c r="L99" s="103"/>
+      <c r="M99" s="103"/>
+      <c r="N99" s="103"/>
+      <c r="O99" s="103"/>
+    </row>
+    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A100" s="44">
+        <v>146</v>
       </c>
       <c r="B100" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" s="4">
-        <v>301</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="C100" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="16">
-        <v>400</v>
-      </c>
-      <c r="H100" s="35" t="s">
+      <c r="G100" s="44">
+        <v>403</v>
+      </c>
+      <c r="H100" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L100" s="5">
-        <v>1004</v>
-      </c>
-      <c r="M100" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="N100" s="22" t="s">
+      <c r="K100" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L100" s="4">
+        <v>1016</v>
+      </c>
+      <c r="M100" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O100" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O100" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:66" ht="63" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B101" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>55</v>
+      <c r="C101" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>36</v>
@@ -27895,7 +28114,7 @@
         <v>37</v>
       </c>
       <c r="G101" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H101" s="35" t="s">
         <v>38</v>
@@ -27907,42 +28126,42 @@
         <v>40</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L101" s="5">
-        <v>1015</v>
-      </c>
-      <c r="M101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N101" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O101" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L101" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N101" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B102" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D102" s="54">
-        <v>302</v>
-      </c>
-      <c r="E102" s="54" t="s">
+      <c r="C102" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="4">
-        <v>403</v>
+      <c r="G102" s="16">
+        <v>401</v>
       </c>
       <c r="H102" s="35" t="s">
         <v>38</v>
@@ -27950,37 +28169,37 @@
       <c r="I102" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J102" s="54" t="s">
+      <c r="J102" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L102" s="54">
-        <v>1006</v>
-      </c>
-      <c r="M102" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N102" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O102" s="55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N102" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O102" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B103" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>59</v>
+      <c r="C103" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D103" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>37</v>
@@ -28004,30 +28223,30 @@
         <v>47</v>
       </c>
       <c r="L103" s="5">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O103" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B104" s="57" t="s">
         <v>168</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D104" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>37</v>
@@ -28036,7 +28255,7 @@
         <v>37</v>
       </c>
       <c r="G104" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H104" s="35" t="s">
         <v>38</v>
@@ -28048,33 +28267,33 @@
         <v>40</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L104" s="5">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O104" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B105" s="57" t="s">
         <v>168</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D105" s="4">
-        <v>302</v>
+        <v>55</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>37</v>
@@ -28095,41 +28314,41 @@
         <v>40</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L105" s="5">
-        <v>5001</v>
+        <v>1015</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O105" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B106" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D106" s="4">
+      <c r="C106" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="54">
         <v>302</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106" s="4">
         <v>403</v>
       </c>
       <c r="H106" s="35" t="s">
@@ -28138,216 +28357,272 @@
       <c r="I106" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J106" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L106" s="5">
-        <v>1011</v>
+        <v>51</v>
+      </c>
+      <c r="L106" s="54">
+        <v>1006</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O106" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B107" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D107" s="16">
-        <v>305</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="C107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="4">
+        <v>302</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="16" t="s">
+      <c r="F107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="26">
-        <v>400</v>
-      </c>
-      <c r="H107" s="4" t="s">
+      <c r="G107" s="16">
+        <v>403</v>
+      </c>
+      <c r="H107" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J107" s="16" t="s">
+      <c r="J107" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K107" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L107" s="17">
-        <v>1009</v>
-      </c>
-      <c r="M107" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N107" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="O107" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L107" s="5">
+        <v>1007</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N107" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B108" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" s="16">
-        <v>305</v>
-      </c>
-      <c r="E108" s="16" t="s">
+      <c r="C108" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="4">
+        <v>302</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G108" s="26">
-        <v>400</v>
-      </c>
-      <c r="H108" s="4" t="s">
+      <c r="G108" s="16">
+        <v>403</v>
+      </c>
+      <c r="H108" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J108" s="16" t="s">
+      <c r="J108" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K108" s="16" t="s">
-        <v>51</v>
+      <c r="K108" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="L108" s="5">
-        <v>3002</v>
-      </c>
-      <c r="M108" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="N108" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="O108" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+      <c r="M108" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N108" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O108" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B109" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="16" t="s">
+      <c r="C109" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="4">
+        <v>302</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F109" s="16" t="s">
+      <c r="F109" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G109" s="26">
-        <v>400</v>
-      </c>
-      <c r="H109" s="4" t="s">
+      <c r="G109" s="16">
+        <v>403</v>
+      </c>
+      <c r="H109" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I109" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J109" s="16" t="s">
+      <c r="J109" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K109" s="16" t="s">
+      <c r="K109" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L109" s="5">
+        <v>5001</v>
+      </c>
+      <c r="M109" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="N109" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O109" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>111</v>
+      </c>
+      <c r="B110" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" s="4">
+        <v>302</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" s="16">
+        <v>403</v>
+      </c>
+      <c r="H110" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L110" s="5">
+        <v>1011</v>
+      </c>
+      <c r="M110" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N110" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O110" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>17</v>
+      </c>
+      <c r="B111" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="16">
+        <v>305</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" s="26">
+        <v>400</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L109" s="18">
-        <v>3003</v>
-      </c>
-      <c r="M109" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="N109" s="23" t="s">
+      <c r="L111" s="17">
+        <v>1009</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N111" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="O109" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="B110" s="100"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="100"/>
-      <c r="G110" s="100"/>
-      <c r="H110" s="100"/>
-      <c r="I110" s="100"/>
-      <c r="J110" s="100"/>
-      <c r="K110" s="100"/>
-      <c r="L110" s="100"/>
-      <c r="M110" s="100"/>
-      <c r="N110" s="100"/>
-      <c r="O110" s="100"/>
-    </row>
-    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="98"/>
-      <c r="C111" s="98"/>
-      <c r="D111" s="98"/>
-      <c r="E111" s="98"/>
-      <c r="F111" s="98"/>
-      <c r="G111" s="98"/>
-      <c r="H111" s="98"/>
-      <c r="I111" s="98"/>
-      <c r="J111" s="98"/>
-      <c r="K111" s="98"/>
-      <c r="L111" s="98"/>
-      <c r="M111" s="98"/>
-      <c r="N111" s="98"/>
-      <c r="O111" s="99"/>
-    </row>
-    <row r="112" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:66" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D112" s="4">
-        <v>17</v>
+        <v>168</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="16">
+        <v>305</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>37</v>
@@ -28355,45 +28630,45 @@
       <c r="F112" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G112" s="16">
-        <v>200</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>80</v>
+      <c r="G112" s="26">
+        <v>400</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="L112" s="5">
-        <v>2603</v>
-      </c>
-      <c r="M112" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="N112" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O112" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>3002</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N112" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O112" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:66" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B113" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D113" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E113" s="16" t="s">
@@ -28402,233 +28677,377 @@
       <c r="F113" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G113" s="16">
+      <c r="G113" s="26">
+        <v>400</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L113" s="18">
+        <v>3003</v>
+      </c>
+      <c r="M113" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N113" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O113" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>180</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D114" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="5">
+        <v>401</v>
+      </c>
+      <c r="H114" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K114" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L114" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M114" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N114" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O114" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q114" s="14"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="14"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="14"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="14"/>
+      <c r="Z114" s="14"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
+      <c r="AC114" s="14"/>
+      <c r="AD114" s="14"/>
+      <c r="AE114" s="14"/>
+      <c r="AF114" s="14"/>
+      <c r="AG114" s="14"/>
+      <c r="AH114" s="14"/>
+      <c r="AI114" s="14"/>
+      <c r="AJ114" s="14"/>
+      <c r="AK114" s="14"/>
+      <c r="AL114" s="14"/>
+      <c r="AM114" s="14"/>
+      <c r="AN114" s="14"/>
+      <c r="AO114" s="14"/>
+      <c r="AP114" s="14"/>
+      <c r="AQ114" s="14"/>
+      <c r="AR114" s="14"/>
+      <c r="AS114" s="14"/>
+      <c r="AT114" s="14"/>
+      <c r="AU114" s="14"/>
+      <c r="AV114" s="14"/>
+      <c r="AW114" s="14"/>
+      <c r="AX114" s="14"/>
+      <c r="AY114" s="14"/>
+      <c r="AZ114" s="14"/>
+      <c r="BA114" s="14"/>
+      <c r="BB114" s="14"/>
+      <c r="BC114" s="14"/>
+      <c r="BD114" s="14"/>
+      <c r="BE114" s="14"/>
+      <c r="BF114" s="14"/>
+      <c r="BG114" s="14"/>
+      <c r="BH114" s="14"/>
+      <c r="BI114" s="14"/>
+      <c r="BJ114" s="14"/>
+      <c r="BK114" s="14"/>
+      <c r="BL114" s="14"/>
+      <c r="BM114" s="14"/>
+      <c r="BN114" s="14"/>
+    </row>
+    <row r="115" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="112"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="112"/>
+      <c r="E115" s="112"/>
+      <c r="F115" s="112"/>
+      <c r="G115" s="112"/>
+      <c r="H115" s="112"/>
+      <c r="I115" s="112"/>
+      <c r="J115" s="112"/>
+      <c r="K115" s="112"/>
+      <c r="L115" s="112"/>
+      <c r="M115" s="112"/>
+      <c r="N115" s="112"/>
+      <c r="O115" s="112"/>
+    </row>
+    <row r="116" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="H113" s="16" t="s">
+      <c r="B116" s="110"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="110"/>
+      <c r="I116" s="110"/>
+      <c r="J116" s="110"/>
+      <c r="K116" s="110"/>
+      <c r="L116" s="110"/>
+      <c r="M116" s="110"/>
+      <c r="N116" s="110"/>
+      <c r="O116" s="111"/>
+    </row>
+    <row r="117" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>163</v>
+      </c>
+      <c r="B117" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="4">
+        <v>17</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" s="16">
+        <v>200</v>
+      </c>
+      <c r="H117" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="16" t="s">
+      <c r="I117" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="J117" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="K117" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L117" s="5">
+        <v>2603</v>
+      </c>
+      <c r="M117" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O117" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>164</v>
+      </c>
+      <c r="B118" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="16">
+        <v>200</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L113" s="5">
+      <c r="L118" s="5">
         <v>2604</v>
       </c>
-      <c r="M113" s="50" t="s">
+      <c r="M118" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="N113" s="22" t="s">
+      <c r="N118" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O113" s="22" t="s">
+      <c r="O118" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="97" t="s">
+    <row r="119" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="B114" s="98"/>
-      <c r="C114" s="98"/>
-      <c r="D114" s="98"/>
-      <c r="E114" s="98"/>
-      <c r="F114" s="98"/>
-      <c r="G114" s="98"/>
-      <c r="H114" s="98"/>
-      <c r="I114" s="98"/>
-      <c r="J114" s="98"/>
-      <c r="K114" s="98"/>
-      <c r="L114" s="98"/>
-      <c r="M114" s="98"/>
-      <c r="N114" s="98"/>
-      <c r="O114" s="99"/>
-    </row>
-    <row r="115" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="B119" s="110"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="110"/>
+      <c r="J119" s="110"/>
+      <c r="K119" s="110"/>
+      <c r="L119" s="110"/>
+      <c r="M119" s="110"/>
+      <c r="N119" s="110"/>
+      <c r="O119" s="111"/>
+    </row>
+    <row r="120" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
         <v>163</v>
       </c>
-      <c r="B115" s="57" t="s">
+      <c r="B120" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C120" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D120" s="4">
         <v>17</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E120" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F120" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G115" s="16">
+      <c r="G120" s="16">
         <v>200</v>
       </c>
-      <c r="H115" s="16" t="s">
+      <c r="H120" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I115" s="16" t="s">
+      <c r="I120" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="J120" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K120" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L115" s="5">
+      <c r="L120" s="5">
         <v>2603</v>
       </c>
-      <c r="M115" s="43" t="s">
+      <c r="M120" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="N115" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O115" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+    <row r="121" spans="1:66" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
         <v>164</v>
       </c>
-      <c r="B116" s="57" t="s">
+      <c r="B121" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C121" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E121" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F116" s="16" t="s">
+      <c r="F121" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G116" s="16">
+      <c r="G121" s="16">
         <v>200</v>
       </c>
-      <c r="H116" s="16" t="s">
+      <c r="H121" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I116" s="16" t="s">
+      <c r="I121" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J121" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K121" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L116" s="5">
+      <c r="L121" s="5">
         <v>2604</v>
       </c>
-      <c r="M116" s="50" t="s">
+      <c r="M121" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="N116" s="22" t="s">
+      <c r="N121" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O116" s="22" t="s">
+      <c r="O121" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="13"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="13"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
-      <c r="O119" s="13"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="13"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="13"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="13"/>
       <c r="C122" s="52"/>
@@ -28645,7 +29064,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="13"/>
       <c r="C123" s="52"/>
@@ -28662,7 +29081,7 @@
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="13"/>
       <c r="C124" s="52"/>
@@ -28679,7 +29098,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="52"/>
@@ -28696,7 +29115,7 @@
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="13"/>
       <c r="C126" s="52"/>
@@ -28713,7 +29132,7 @@
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="13"/>
       <c r="C127" s="52"/>
@@ -28730,7 +29149,7 @@
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="13"/>
       <c r="C128" s="52"/>
@@ -32422,6 +32841,7 @@
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="13"/>
+      <c r="C345" s="52"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -32435,38 +32855,122 @@
       <c r="N345" s="13"/>
       <c r="O345" s="13"/>
     </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A346" s="12"/>
+      <c r="B346" s="13"/>
+      <c r="C346" s="52"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+      <c r="G346" s="27"/>
+      <c r="H346" s="27"/>
+      <c r="I346" s="27"/>
+      <c r="J346" s="12"/>
+      <c r="K346" s="12"/>
+      <c r="L346" s="12"/>
+      <c r="M346" s="13"/>
+      <c r="N346" s="13"/>
+      <c r="O346" s="13"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A347" s="12"/>
+      <c r="B347" s="13"/>
+      <c r="C347" s="52"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12"/>
+      <c r="G347" s="27"/>
+      <c r="H347" s="27"/>
+      <c r="I347" s="27"/>
+      <c r="J347" s="12"/>
+      <c r="K347" s="12"/>
+      <c r="L347" s="12"/>
+      <c r="M347" s="13"/>
+      <c r="N347" s="13"/>
+      <c r="O347" s="13"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A348" s="12"/>
+      <c r="B348" s="13"/>
+      <c r="C348" s="52"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+      <c r="G348" s="27"/>
+      <c r="H348" s="27"/>
+      <c r="I348" s="27"/>
+      <c r="J348" s="12"/>
+      <c r="K348" s="12"/>
+      <c r="L348" s="12"/>
+      <c r="M348" s="13"/>
+      <c r="N348" s="13"/>
+      <c r="O348" s="13"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A349" s="12"/>
+      <c r="B349" s="13"/>
+      <c r="C349" s="52"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12"/>
+      <c r="G349" s="27"/>
+      <c r="H349" s="27"/>
+      <c r="I349" s="27"/>
+      <c r="J349" s="12"/>
+      <c r="K349" s="12"/>
+      <c r="L349" s="12"/>
+      <c r="M349" s="13"/>
+      <c r="N349" s="13"/>
+      <c r="O349" s="13"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A350" s="12"/>
+      <c r="B350" s="13"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="27"/>
+      <c r="H350" s="27"/>
+      <c r="I350" s="27"/>
+      <c r="J350" s="12"/>
+      <c r="K350" s="12"/>
+      <c r="L350" s="12"/>
+      <c r="M350" s="13"/>
+      <c r="N350" s="13"/>
+      <c r="O350" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A78:O78"/>
-    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A98:O98"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="A80:O80"/>
+    <mergeCell ref="A65:O65"/>
+    <mergeCell ref="A81:O81"/>
+    <mergeCell ref="A64:O64"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A19:O19"/>
-    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A20:O20"/>
     <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A110:O110"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A94:O94"/>
-    <mergeCell ref="A95:O95"/>
+    <mergeCell ref="A49:O49"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L57:L61 L11:L15 L72:L76 L23:L24 L31:L32 L17:L18 L7:L9 L68:L70 L53:L55 L26:L29 L86:L89 L103:L108 L82:L84 L99:L101 L92" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:L18 L11:L15 L58:L62 L24:L25 L32:L33 L95 L7:L9 L70:L72 L54:L56 L27:L30 L89:L92 L107:L112 L85:L87 L103:L105 L74:L78" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57:K61 K72:K76 K68:K70 K7:K9 K53:K55 K11:K18 K23:K45 K82:K84 K103:K109 K99:K101 K86:K93 K115:K116 K112:K113" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K18 K58:K62 K70:K72 K7:K9 K54:K56 K117:K118 K24:K46 K85:K87 K89:K96 K103:K105 K74:K78 K120:K121 K107:K113" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J57:J61 J72:J76 J68:J70 J7:J9 J53:J55 J11:J18 J23:J45 J82:J84 J103:J109 J99:J101 J86:J93 J115:J116 J112:J113" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:J18 J58:J62 J70:J72 J7:J9 J54:J56 J117:J118 J24:J46 J85:J87 J89:J96 J103:J105 J74:J78 J120:J121 J107:J113" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C38" location="ERR_Validation!A110" display="See Appendix A below for allowable amounts for specific years" xr:uid="{3145707C-310F-4C9A-8CC0-DFECAB116321}"/>
-    <hyperlink ref="C39" location="ERR_Validation!A110" display="See Appendix A below for allowable number of submissions for specific years" xr:uid="{A42FA457-322D-4341-9479-FD182D7DF9D9}"/>
+    <hyperlink ref="C39" location="ERR_Validation!A110" display="See Appendix A below for allowable amounts for specific years" xr:uid="{3145707C-310F-4C9A-8CC0-DFECAB116321}"/>
+    <hyperlink ref="C40" location="ERR_Validation!A110" display="See Appendix A below for allowable number of submissions for specific years" xr:uid="{A42FA457-322D-4341-9479-FD182D7DF9D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32474,67 +32978,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l29cd52af9b640b690e3347aa75f97a9>
-    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ade64af1c6a24cfdbe8da7f962b31d74>
-    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
-        </TermInfo>
-      </Terms>
-    </e62af2f156934d1aab35222180c5fbb1>
-    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
-        </TermInfo>
-      </Terms>
-    </nb82aa7489a64919aab5fd247ffa0d1e>
-    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
-        </TermInfo>
-      </Terms>
-    </f62107d924a7469492625f91956e46a6>
-    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e9be08524f454d8b979862330e952271>
-    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Value>97</Value>
-      <Value>45</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <UserInfo>
-        <DisplayName>Hunt, Martin</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Word document" ma:contentTypeID="0x010100852E11B2A94E4937B655CB4FCD918453006DFD5C59A7CB45AAB5046F3899BB7DEC00F397826DF95DEB4B8DB89BEACF2240F1" ma:contentTypeVersion="79" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2efa76ee5d5cd602cc18ca32df57176e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9394a98c30c487d0596bd1768260a67a" ns2:_="">
     <xsd:import namespace="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
@@ -32754,10 +33197,81 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l29cd52af9b640b690e3347aa75f97a9>
+    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ade64af1c6a24cfdbe8da7f962b31d74>
+    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
+        </TermInfo>
+      </Terms>
+    </e62af2f156934d1aab35222180c5fbb1>
+    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
+        </TermInfo>
+      </Terms>
+    </nb82aa7489a64919aab5fd247ffa0d1e>
+    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
+        </TermInfo>
+      </Terms>
+    </f62107d924a7469492625f91956e46a6>
+    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e9be08524f454d8b979862330e952271>
+    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Value>97</Value>
+      <Value>45</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <UserInfo>
+        <DisplayName>Hunt, Martin</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32773,19 +33287,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>